--- a/vgp_database/Latir_volcanic_field.xlsx
+++ b/vgp_database/Latir_volcanic_field.xlsx
@@ -858,14 +858,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -889,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -996,13 +996,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1015,8 +1015,12 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -7394,8 +7398,8 @@
       <c r="C70" s="26">
         <v>36.87</v>
       </c>
-      <c r="D70" s="26">
-        <v>105.38</v>
+      <c r="D70" s="34">
+        <v>-105.38</v>
       </c>
       <c r="E70" s="27">
         <v>6.0</v>
@@ -7485,8 +7489,8 @@
       <c r="C71" s="26">
         <v>36.87</v>
       </c>
-      <c r="D71" s="26">
-        <v>105.38</v>
+      <c r="D71" s="34">
+        <v>-105.38</v>
       </c>
       <c r="E71" s="27">
         <v>4.0</v>
@@ -8134,10 +8138,10 @@
         <v>123</v>
       </c>
       <c r="C78" s="26">
-        <v>35.5629887256699</v>
+        <v>36.77153529523033</v>
       </c>
       <c r="D78" s="26">
-        <v>-106.892959754159</v>
+        <v>-105.5386885173766</v>
       </c>
       <c r="E78" s="35">
         <v>15.0</v>
@@ -8155,12 +8159,8 @@
         <v>10.6</v>
       </c>
       <c r="J78" s="30"/>
-      <c r="K78" s="14">
-        <v>80.7</v>
-      </c>
-      <c r="L78" s="14">
-        <v>38.2</v>
-      </c>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
       <c r="M78" s="12"/>
       <c r="N78" s="33"/>
       <c r="O78" s="32"/>
@@ -8893,10 +8893,10 @@
       <c r="L86" s="14">
         <v>130.8</v>
       </c>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="38"/>
-      <c r="P86" s="38"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+      <c r="O86" s="39"/>
+      <c r="P86" s="39"/>
       <c r="Q86" s="13">
         <v>25.47</v>
       </c>
@@ -8985,11 +8985,11 @@
       <c r="L87" s="14">
         <v>311.7</v>
       </c>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="38"/>
-      <c r="P87" s="38"/>
-      <c r="Q87" s="38"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+      <c r="O87" s="39"/>
+      <c r="P87" s="39"/>
+      <c r="Q87" s="39"/>
       <c r="R87" s="13">
         <v>15.0</v>
       </c>
@@ -9077,11 +9077,11 @@
       <c r="L88" s="14">
         <v>139.9</v>
       </c>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="38"/>
-      <c r="P88" s="38"/>
-      <c r="Q88" s="38"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
       <c r="R88" s="13">
         <v>15.0</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>36.8714767410677</v>
       </c>
       <c r="D89" s="26">
-        <v>-108.325303826692</v>
+        <v>-105.38</v>
       </c>
       <c r="E89" s="35">
         <v>5.0</v>
@@ -9161,17 +9161,13 @@
         <v>4.2</v>
       </c>
       <c r="J89" s="30"/>
-      <c r="K89" s="14">
-        <v>67.4</v>
-      </c>
-      <c r="L89" s="14">
-        <v>68.9</v>
-      </c>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="38"/>
-      <c r="P89" s="38"/>
-      <c r="Q89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
       <c r="R89" s="13">
         <v>15.0</v>
       </c>
@@ -9257,11 +9253,11 @@
       <c r="L90" s="14">
         <v>323.8</v>
       </c>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="38"/>
-      <c r="P90" s="38"/>
-      <c r="Q90" s="38"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+      <c r="O90" s="39"/>
+      <c r="P90" s="39"/>
+      <c r="Q90" s="39"/>
       <c r="R90" s="13">
         <v>15.0</v>
       </c>
@@ -9347,11 +9343,11 @@
       <c r="L91" s="14">
         <v>83.0</v>
       </c>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="38"/>
-      <c r="P91" s="38"/>
-      <c r="Q91" s="38"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+      <c r="O91" s="39"/>
+      <c r="P91" s="39"/>
+      <c r="Q91" s="39"/>
       <c r="R91" s="13">
         <v>3.0</v>
       </c>
@@ -9383,7 +9379,7 @@
       <c r="AF91" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG91" s="39">
+      <c r="AG91" s="40">
         <v>0.0</v>
       </c>
       <c r="AH91" s="11">
@@ -9437,11 +9433,11 @@
       <c r="L92" s="14">
         <v>166.5</v>
       </c>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="38"/>
-      <c r="P92" s="38"/>
-      <c r="Q92" s="38"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+      <c r="O92" s="39"/>
+      <c r="P92" s="39"/>
+      <c r="Q92" s="39"/>
       <c r="R92" s="13">
         <v>16.6</v>
       </c>
@@ -9477,7 +9473,7 @@
       <c r="AF92" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG92" s="39">
+      <c r="AG92" s="40">
         <v>2.0</v>
       </c>
       <c r="AH92" s="32"/>
@@ -9529,11 +9525,11 @@
       <c r="L93" s="14">
         <v>174.1</v>
       </c>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="38"/>
-      <c r="P93" s="38"/>
-      <c r="Q93" s="38"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
       <c r="R93" s="13">
         <v>16.6</v>
       </c>
@@ -9569,7 +9565,7 @@
       <c r="AF93" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG93" s="39">
+      <c r="AG93" s="40">
         <v>2.0</v>
       </c>
       <c r="AH93" s="32"/>
@@ -9618,11 +9614,11 @@
       <c r="L94" s="14">
         <v>4.3</v>
       </c>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="38"/>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
       <c r="R94" s="13">
         <v>16.6</v>
       </c>
@@ -9658,7 +9654,7 @@
       <c r="AF94" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG94" s="39">
+      <c r="AG94" s="40">
         <v>2.0</v>
       </c>
       <c r="AH94" s="32"/>
@@ -9707,11 +9703,11 @@
       <c r="L95" s="14">
         <v>170.4</v>
       </c>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
-      <c r="Q95" s="38"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+      <c r="O95" s="39"/>
+      <c r="P95" s="39"/>
+      <c r="Q95" s="39"/>
       <c r="R95" s="13">
         <v>16.6</v>
       </c>
@@ -9747,7 +9743,7 @@
       <c r="AF95" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG95" s="39">
+      <c r="AG95" s="40">
         <v>2.0</v>
       </c>
       <c r="AH95" s="32"/>
@@ -9796,11 +9792,11 @@
       <c r="L96" s="14">
         <v>178.3</v>
       </c>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="38"/>
-      <c r="P96" s="38"/>
-      <c r="Q96" s="38"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
       <c r="R96" s="13">
         <v>16.6</v>
       </c>
@@ -9836,7 +9832,7 @@
       <c r="AF96" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG96" s="39">
+      <c r="AG96" s="40">
         <v>2.0</v>
       </c>
       <c r="AH96" s="32"/>
@@ -9885,11 +9881,11 @@
       <c r="L97" s="14">
         <v>151.9</v>
       </c>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="38"/>
-      <c r="P97" s="38"/>
-      <c r="Q97" s="38"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
       <c r="R97" s="13">
         <v>16.6</v>
       </c>
@@ -9925,7 +9921,7 @@
       <c r="AF97" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG97" s="39">
+      <c r="AG97" s="40">
         <v>2.0</v>
       </c>
       <c r="AH97" s="32"/>
@@ -9974,11 +9970,11 @@
       <c r="L98" s="14">
         <v>205.1</v>
       </c>
-      <c r="M98" s="38"/>
-      <c r="N98" s="38"/>
-      <c r="O98" s="38"/>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
       <c r="R98" s="13">
         <v>16.6</v>
       </c>
@@ -10014,7 +10010,7 @@
       <c r="AF98" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG98" s="39">
+      <c r="AG98" s="40">
         <v>2.0</v>
       </c>
       <c r="AH98" s="32"/>
@@ -10064,11 +10060,11 @@
       <c r="L99" s="14">
         <v>197.4</v>
       </c>
-      <c r="M99" s="38"/>
-      <c r="N99" s="38"/>
-      <c r="O99" s="38"/>
-      <c r="P99" s="38"/>
-      <c r="Q99" s="38"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
       <c r="R99" s="13">
         <v>16.6</v>
       </c>
@@ -10104,7 +10100,7 @@
       <c r="AF99" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG99" s="39">
+      <c r="AG99" s="40">
         <v>2.0</v>
       </c>
       <c r="AH99" s="32"/>
@@ -10154,11 +10150,11 @@
       <c r="L100" s="14">
         <v>160.4</v>
       </c>
-      <c r="M100" s="38"/>
-      <c r="N100" s="38"/>
-      <c r="O100" s="38"/>
-      <c r="P100" s="38"/>
-      <c r="Q100" s="38"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
       <c r="R100" s="13">
         <v>16.6</v>
       </c>
@@ -10194,7 +10190,7 @@
       <c r="AF100" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG100" s="39">
+      <c r="AG100" s="40">
         <v>2.0</v>
       </c>
       <c r="AH100" s="32"/>
@@ -10244,11 +10240,11 @@
       <c r="L101" s="14">
         <v>324.4</v>
       </c>
-      <c r="M101" s="38"/>
-      <c r="N101" s="38"/>
-      <c r="O101" s="38"/>
-      <c r="P101" s="38"/>
-      <c r="Q101" s="38"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
+      <c r="O101" s="39"/>
+      <c r="P101" s="39"/>
+      <c r="Q101" s="39"/>
       <c r="R101" s="13">
         <v>16.6</v>
       </c>
@@ -10284,7 +10280,7 @@
       <c r="AF101" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG101" s="39">
+      <c r="AG101" s="40">
         <v>2.0</v>
       </c>
       <c r="AH101" s="32"/>
@@ -10334,11 +10330,11 @@
       <c r="L102" s="14">
         <v>213.2</v>
       </c>
-      <c r="M102" s="38"/>
-      <c r="N102" s="38"/>
-      <c r="O102" s="38"/>
-      <c r="P102" s="38"/>
-      <c r="Q102" s="38"/>
+      <c r="M102" s="39"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
       <c r="R102" s="13">
         <v>16.6</v>
       </c>
@@ -10374,7 +10370,7 @@
       <c r="AF102" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG102" s="39">
+      <c r="AG102" s="40">
         <v>2.0</v>
       </c>
       <c r="AH102" s="32"/>
@@ -10424,11 +10420,11 @@
       <c r="L103" s="14">
         <v>324.0</v>
       </c>
-      <c r="M103" s="38"/>
-      <c r="N103" s="38"/>
-      <c r="O103" s="38"/>
-      <c r="P103" s="38"/>
-      <c r="Q103" s="38"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="39"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39"/>
       <c r="R103" s="13">
         <v>16.6</v>
       </c>
@@ -10464,7 +10460,7 @@
       <c r="AF103" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG103" s="39">
+      <c r="AG103" s="40">
         <v>2.0</v>
       </c>
       <c r="AH103" s="32"/>
@@ -10514,11 +10510,11 @@
       <c r="L104" s="14">
         <v>281.1</v>
       </c>
-      <c r="M104" s="38"/>
-      <c r="N104" s="38"/>
-      <c r="O104" s="38"/>
-      <c r="P104" s="38"/>
-      <c r="Q104" s="38"/>
+      <c r="M104" s="39"/>
+      <c r="N104" s="39"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="39"/>
       <c r="R104" s="13">
         <v>16.6</v>
       </c>
@@ -10554,7 +10550,7 @@
       <c r="AF104" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG104" s="39">
+      <c r="AG104" s="40">
         <v>2.0</v>
       </c>
       <c r="AH104" s="32"/>
@@ -10604,11 +10600,11 @@
       <c r="L105" s="14">
         <v>331.9</v>
       </c>
-      <c r="M105" s="38"/>
-      <c r="N105" s="38"/>
-      <c r="O105" s="38"/>
-      <c r="P105" s="38"/>
-      <c r="Q105" s="38"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
       <c r="R105" s="13">
         <v>16.6</v>
       </c>
@@ -10644,7 +10640,7 @@
       <c r="AF105" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG105" s="39">
+      <c r="AG105" s="40">
         <v>2.0</v>
       </c>
       <c r="AH105" s="32"/>
@@ -10694,11 +10690,11 @@
       <c r="L106" s="14">
         <v>326.8</v>
       </c>
-      <c r="M106" s="38"/>
-      <c r="N106" s="38"/>
-      <c r="O106" s="38"/>
-      <c r="P106" s="38"/>
-      <c r="Q106" s="38"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39"/>
       <c r="R106" s="13">
         <v>19.14</v>
       </c>
@@ -10734,7 +10730,7 @@
       <c r="AF106" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG106" s="39">
+      <c r="AG106" s="40">
         <v>2.0</v>
       </c>
       <c r="AH106" s="32"/>
@@ -10784,11 +10780,11 @@
       <c r="L107" s="14">
         <v>352.4</v>
       </c>
-      <c r="M107" s="38"/>
-      <c r="N107" s="38"/>
-      <c r="O107" s="38"/>
-      <c r="P107" s="38"/>
-      <c r="Q107" s="38"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="39"/>
+      <c r="Q107" s="39"/>
       <c r="R107" s="13">
         <v>19.14</v>
       </c>
@@ -10824,7 +10820,7 @@
       <c r="AF107" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG107" s="39">
+      <c r="AG107" s="40">
         <v>2.0</v>
       </c>
       <c r="AH107" s="32"/>
@@ -10874,11 +10870,11 @@
       <c r="L108" s="14">
         <v>219.4</v>
       </c>
-      <c r="M108" s="38"/>
-      <c r="N108" s="38"/>
-      <c r="O108" s="38"/>
-      <c r="P108" s="38"/>
-      <c r="Q108" s="38"/>
+      <c r="M108" s="39"/>
+      <c r="N108" s="39"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="39"/>
+      <c r="Q108" s="39"/>
       <c r="R108" s="13">
         <v>19.14</v>
       </c>
@@ -10914,7 +10910,7 @@
       <c r="AF108" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG108" s="39">
+      <c r="AG108" s="40">
         <v>2.0</v>
       </c>
       <c r="AH108" s="32"/>
@@ -10958,13 +10954,13 @@
         <v>14.6</v>
       </c>
       <c r="J109" s="30"/>
-      <c r="K109" s="40"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="38"/>
-      <c r="N109" s="38"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="38"/>
-      <c r="Q109" s="38"/>
+      <c r="K109" s="38"/>
+      <c r="L109" s="38"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="39"/>
+      <c r="O109" s="39"/>
+      <c r="P109" s="39"/>
+      <c r="Q109" s="39"/>
       <c r="R109" s="13">
         <v>19.14</v>
       </c>
@@ -11000,7 +10996,7 @@
       <c r="AF109" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG109" s="39">
+      <c r="AG109" s="40">
         <v>2.0</v>
       </c>
       <c r="AH109" s="32"/>
@@ -11050,11 +11046,11 @@
       <c r="L110" s="14">
         <v>28.3</v>
       </c>
-      <c r="M110" s="38"/>
-      <c r="N110" s="38"/>
-      <c r="O110" s="38"/>
-      <c r="P110" s="38"/>
-      <c r="Q110" s="38"/>
+      <c r="M110" s="39"/>
+      <c r="N110" s="39"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39"/>
       <c r="R110" s="13">
         <v>19.14</v>
       </c>
@@ -11090,7 +11086,7 @@
       <c r="AF110" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG110" s="39">
+      <c r="AG110" s="40">
         <v>2.0</v>
       </c>
       <c r="AH110" s="32"/>
@@ -11140,11 +11136,11 @@
       <c r="L111" s="14">
         <v>136.5</v>
       </c>
-      <c r="M111" s="38"/>
-      <c r="N111" s="38"/>
-      <c r="O111" s="38"/>
-      <c r="P111" s="38"/>
-      <c r="Q111" s="38"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39"/>
       <c r="R111" s="13">
         <v>24.64</v>
       </c>
@@ -11180,7 +11176,7 @@
       <c r="AF111" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG111" s="39">
+      <c r="AG111" s="40">
         <v>2.0</v>
       </c>
       <c r="AH111" s="32"/>
@@ -11230,11 +11226,11 @@
       <c r="L112" s="14">
         <v>331.9</v>
       </c>
-      <c r="M112" s="38"/>
-      <c r="N112" s="38"/>
-      <c r="O112" s="38"/>
-      <c r="P112" s="38"/>
-      <c r="Q112" s="38"/>
+      <c r="M112" s="39"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="39"/>
+      <c r="Q112" s="39"/>
       <c r="R112" s="13">
         <v>24.64</v>
       </c>
@@ -11270,7 +11266,7 @@
       <c r="AF112" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG112" s="39">
+      <c r="AG112" s="40">
         <v>2.0</v>
       </c>
       <c r="AH112" s="32"/>
@@ -11320,11 +11316,11 @@
       <c r="L113" s="14">
         <v>126.8</v>
       </c>
-      <c r="M113" s="38"/>
-      <c r="N113" s="38"/>
-      <c r="O113" s="38"/>
-      <c r="P113" s="38"/>
-      <c r="Q113" s="38"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="39"/>
+      <c r="Q113" s="39"/>
       <c r="R113" s="13">
         <v>24.64</v>
       </c>
@@ -11360,7 +11356,7 @@
       <c r="AF113" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG113" s="39">
+      <c r="AG113" s="40">
         <v>2.0</v>
       </c>
       <c r="AH113" s="32"/>
@@ -11410,11 +11406,11 @@
       <c r="L114" s="14">
         <v>203.0</v>
       </c>
-      <c r="M114" s="38"/>
-      <c r="N114" s="38"/>
-      <c r="O114" s="38"/>
-      <c r="P114" s="38"/>
-      <c r="Q114" s="38"/>
+      <c r="M114" s="39"/>
+      <c r="N114" s="39"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="39"/>
+      <c r="Q114" s="39"/>
       <c r="R114" s="13">
         <v>24.64</v>
       </c>
@@ -11450,7 +11446,7 @@
       <c r="AF114" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG114" s="39">
+      <c r="AG114" s="40">
         <v>2.0</v>
       </c>
       <c r="AH114" s="32"/>
@@ -11500,11 +11496,11 @@
       <c r="L115" s="14">
         <v>46.8</v>
       </c>
-      <c r="M115" s="38"/>
-      <c r="N115" s="38"/>
-      <c r="O115" s="38"/>
-      <c r="P115" s="38"/>
-      <c r="Q115" s="38"/>
+      <c r="M115" s="39"/>
+      <c r="N115" s="39"/>
+      <c r="O115" s="39"/>
+      <c r="P115" s="39"/>
+      <c r="Q115" s="39"/>
       <c r="R115" s="13">
         <v>22.33</v>
       </c>
@@ -11540,7 +11536,7 @@
       <c r="AF115" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG115" s="39">
+      <c r="AG115" s="40">
         <v>2.0</v>
       </c>
       <c r="AH115" s="32"/>
@@ -11590,11 +11586,11 @@
       <c r="L116" s="14">
         <v>161.3</v>
       </c>
-      <c r="M116" s="38"/>
-      <c r="N116" s="38"/>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="38"/>
+      <c r="M116" s="39"/>
+      <c r="N116" s="39"/>
+      <c r="O116" s="39"/>
+      <c r="P116" s="39"/>
+      <c r="Q116" s="39"/>
       <c r="R116" s="13">
         <v>22.33</v>
       </c>
@@ -11630,7 +11626,7 @@
       <c r="AF116" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG116" s="39">
+      <c r="AG116" s="40">
         <v>2.0</v>
       </c>
       <c r="AH116" s="32"/>
@@ -11680,21 +11676,21 @@
       <c r="L117" s="14">
         <v>352.3</v>
       </c>
-      <c r="M117" s="38"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
+      <c r="M117" s="39"/>
+      <c r="N117" s="39"/>
+      <c r="O117" s="39"/>
+      <c r="P117" s="39"/>
       <c r="Q117" s="13">
         <v>24.94</v>
       </c>
       <c r="R117" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S117" s="38"/>
+      <c r="S117" s="39"/>
       <c r="T117" s="13">
         <v>25.0</v>
       </c>
-      <c r="U117" s="38"/>
+      <c r="U117" s="39"/>
       <c r="V117" s="13" t="s">
         <v>156</v>
       </c>
@@ -11718,7 +11714,7 @@
       <c r="AF117" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG117" s="39">
+      <c r="AG117" s="40">
         <v>2.0</v>
       </c>
       <c r="AH117" s="32"/>
@@ -11768,21 +11764,21 @@
       <c r="L118" s="14">
         <v>143.0</v>
       </c>
-      <c r="M118" s="38"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="38"/>
-      <c r="P118" s="38"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="39"/>
+      <c r="O118" s="39"/>
+      <c r="P118" s="39"/>
       <c r="Q118" s="13">
         <v>24.94</v>
       </c>
       <c r="R118" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S118" s="38"/>
+      <c r="S118" s="39"/>
       <c r="T118" s="13">
         <v>25.0</v>
       </c>
-      <c r="U118" s="38"/>
+      <c r="U118" s="39"/>
       <c r="V118" s="13" t="s">
         <v>156</v>
       </c>
@@ -11806,7 +11802,7 @@
       <c r="AF118" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG118" s="39">
+      <c r="AG118" s="40">
         <v>2.0</v>
       </c>
       <c r="AH118" s="32"/>
@@ -11856,21 +11852,21 @@
       <c r="L119" s="14">
         <v>359.1</v>
       </c>
-      <c r="M119" s="38"/>
-      <c r="N119" s="38"/>
-      <c r="O119" s="38"/>
-      <c r="P119" s="38"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
+      <c r="O119" s="39"/>
+      <c r="P119" s="39"/>
       <c r="Q119" s="13">
         <v>24.94</v>
       </c>
       <c r="R119" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S119" s="38"/>
+      <c r="S119" s="39"/>
       <c r="T119" s="13">
         <v>25.0</v>
       </c>
-      <c r="U119" s="38"/>
+      <c r="U119" s="39"/>
       <c r="V119" s="13" t="s">
         <v>156</v>
       </c>
@@ -11894,7 +11890,7 @@
       <c r="AF119" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG119" s="39">
+      <c r="AG119" s="40">
         <v>2.0</v>
       </c>
       <c r="AH119" s="32"/>
@@ -11944,21 +11940,21 @@
       <c r="L120" s="14">
         <v>153.0</v>
       </c>
-      <c r="M120" s="38"/>
-      <c r="N120" s="38"/>
-      <c r="O120" s="38"/>
-      <c r="P120" s="38"/>
+      <c r="M120" s="39"/>
+      <c r="N120" s="39"/>
+      <c r="O120" s="39"/>
+      <c r="P120" s="39"/>
       <c r="Q120" s="13">
         <v>24.94</v>
       </c>
       <c r="R120" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S120" s="38"/>
+      <c r="S120" s="39"/>
       <c r="T120" s="13">
         <v>25.0</v>
       </c>
-      <c r="U120" s="38"/>
+      <c r="U120" s="39"/>
       <c r="V120" s="13" t="s">
         <v>156</v>
       </c>
@@ -11982,7 +11978,7 @@
       <c r="AF120" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG120" s="39">
+      <c r="AG120" s="40">
         <v>2.0</v>
       </c>
       <c r="AH120" s="32"/>
@@ -12032,21 +12028,21 @@
       <c r="L121" s="14">
         <v>199.6</v>
       </c>
-      <c r="M121" s="38"/>
-      <c r="N121" s="38"/>
-      <c r="O121" s="38"/>
-      <c r="P121" s="38"/>
+      <c r="M121" s="39"/>
+      <c r="N121" s="39"/>
+      <c r="O121" s="39"/>
+      <c r="P121" s="39"/>
       <c r="Q121" s="13">
         <v>24.94</v>
       </c>
       <c r="R121" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S121" s="38"/>
+      <c r="S121" s="39"/>
       <c r="T121" s="13">
         <v>25.0</v>
       </c>
-      <c r="U121" s="38"/>
+      <c r="U121" s="39"/>
       <c r="V121" s="13" t="s">
         <v>156</v>
       </c>
@@ -12070,7 +12066,7 @@
       <c r="AF121" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG121" s="39">
+      <c r="AG121" s="40">
         <v>0.0</v>
       </c>
       <c r="AH121" s="11">
@@ -12124,21 +12120,21 @@
       <c r="L122" s="14">
         <v>75.6</v>
       </c>
-      <c r="M122" s="38"/>
-      <c r="N122" s="38"/>
-      <c r="O122" s="38"/>
-      <c r="P122" s="38"/>
+      <c r="M122" s="39"/>
+      <c r="N122" s="39"/>
+      <c r="O122" s="39"/>
+      <c r="P122" s="39"/>
       <c r="Q122" s="13">
         <v>24.94</v>
       </c>
       <c r="R122" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S122" s="38"/>
+      <c r="S122" s="39"/>
       <c r="T122" s="13">
         <v>25.0</v>
       </c>
-      <c r="U122" s="38"/>
+      <c r="U122" s="39"/>
       <c r="V122" s="13" t="s">
         <v>156</v>
       </c>
@@ -12162,7 +12158,7 @@
       <c r="AF122" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG122" s="39">
+      <c r="AG122" s="40">
         <v>2.0</v>
       </c>
       <c r="AH122" s="32"/>
@@ -12212,21 +12208,21 @@
       <c r="L123" s="14">
         <v>198.2</v>
       </c>
-      <c r="M123" s="38"/>
-      <c r="N123" s="38"/>
-      <c r="O123" s="38"/>
-      <c r="P123" s="38"/>
+      <c r="M123" s="39"/>
+      <c r="N123" s="39"/>
+      <c r="O123" s="39"/>
+      <c r="P123" s="39"/>
       <c r="Q123" s="13">
         <v>24.94</v>
       </c>
       <c r="R123" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S123" s="38"/>
+      <c r="S123" s="39"/>
       <c r="T123" s="13">
         <v>25.0</v>
       </c>
-      <c r="U123" s="38"/>
+      <c r="U123" s="39"/>
       <c r="V123" s="13" t="s">
         <v>156</v>
       </c>
@@ -12250,7 +12246,7 @@
       <c r="AF123" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG123" s="39">
+      <c r="AG123" s="40">
         <v>2.0</v>
       </c>
       <c r="AH123" s="32"/>
@@ -12300,21 +12296,21 @@
       <c r="L124" s="14">
         <v>203.1</v>
       </c>
-      <c r="M124" s="38"/>
-      <c r="N124" s="38"/>
-      <c r="O124" s="38"/>
-      <c r="P124" s="38"/>
+      <c r="M124" s="39"/>
+      <c r="N124" s="39"/>
+      <c r="O124" s="39"/>
+      <c r="P124" s="39"/>
       <c r="Q124" s="13">
         <v>24.94</v>
       </c>
       <c r="R124" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S124" s="38"/>
+      <c r="S124" s="39"/>
       <c r="T124" s="13">
         <v>25.0</v>
       </c>
-      <c r="U124" s="38"/>
+      <c r="U124" s="39"/>
       <c r="V124" s="13" t="s">
         <v>156</v>
       </c>
@@ -12338,7 +12334,7 @@
       <c r="AF124" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG124" s="39">
+      <c r="AG124" s="40">
         <v>0.0</v>
       </c>
       <c r="AH124" s="11">
@@ -12365,10 +12361,10 @@
         <v>212</v>
       </c>
       <c r="C125" s="26">
-        <v>35.1275652982102</v>
+        <v>36.4</v>
       </c>
       <c r="D125" s="26">
-        <v>-107.360803420677</v>
+        <v>-105.8</v>
       </c>
       <c r="E125" s="27">
         <v>4.0</v>
@@ -12392,21 +12388,21 @@
       <c r="L125" s="14">
         <v>341.2</v>
       </c>
-      <c r="M125" s="38"/>
-      <c r="N125" s="38"/>
-      <c r="O125" s="38"/>
-      <c r="P125" s="38"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
+      <c r="O125" s="39"/>
+      <c r="P125" s="39"/>
       <c r="Q125" s="13">
         <v>24.94</v>
       </c>
       <c r="R125" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S125" s="38"/>
+      <c r="S125" s="39"/>
       <c r="T125" s="13">
         <v>25.0</v>
       </c>
-      <c r="U125" s="38"/>
+      <c r="U125" s="39"/>
       <c r="V125" s="13" t="s">
         <v>156</v>
       </c>
@@ -12430,7 +12426,7 @@
       <c r="AF125" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG125" s="39">
+      <c r="AG125" s="40">
         <v>2.0</v>
       </c>
       <c r="AH125" s="32"/>
@@ -12480,21 +12476,21 @@
       <c r="L126" s="14">
         <v>337.0</v>
       </c>
-      <c r="M126" s="38"/>
-      <c r="N126" s="38"/>
-      <c r="O126" s="38"/>
-      <c r="P126" s="38"/>
+      <c r="M126" s="39"/>
+      <c r="N126" s="39"/>
+      <c r="O126" s="39"/>
+      <c r="P126" s="39"/>
       <c r="Q126" s="13">
         <v>24.94</v>
       </c>
       <c r="R126" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S126" s="38"/>
+      <c r="S126" s="39"/>
       <c r="T126" s="13">
         <v>25.0</v>
       </c>
-      <c r="U126" s="38"/>
+      <c r="U126" s="39"/>
       <c r="V126" s="13" t="s">
         <v>156</v>
       </c>
@@ -12518,7 +12514,7 @@
       <c r="AF126" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG126" s="39">
+      <c r="AG126" s="40">
         <v>2.0</v>
       </c>
       <c r="AH126" s="32"/>
@@ -12568,21 +12564,21 @@
       <c r="L127" s="14">
         <v>353.6</v>
       </c>
-      <c r="M127" s="38"/>
-      <c r="N127" s="38"/>
-      <c r="O127" s="38"/>
-      <c r="P127" s="38"/>
+      <c r="M127" s="39"/>
+      <c r="N127" s="39"/>
+      <c r="O127" s="39"/>
+      <c r="P127" s="39"/>
       <c r="Q127" s="13">
         <v>24.94</v>
       </c>
       <c r="R127" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S127" s="38"/>
+      <c r="S127" s="39"/>
       <c r="T127" s="13">
         <v>25.0</v>
       </c>
-      <c r="U127" s="38"/>
+      <c r="U127" s="39"/>
       <c r="V127" s="13" t="s">
         <v>156</v>
       </c>
@@ -12606,7 +12602,7 @@
       <c r="AF127" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG127" s="39">
+      <c r="AG127" s="40">
         <v>2.0</v>
       </c>
       <c r="AH127" s="32"/>
@@ -12656,21 +12652,21 @@
       <c r="L128" s="14">
         <v>183.5</v>
       </c>
-      <c r="M128" s="38"/>
-      <c r="N128" s="38"/>
-      <c r="O128" s="38"/>
-      <c r="P128" s="38"/>
+      <c r="M128" s="39"/>
+      <c r="N128" s="39"/>
+      <c r="O128" s="39"/>
+      <c r="P128" s="39"/>
       <c r="Q128" s="13">
         <v>24.94</v>
       </c>
       <c r="R128" s="13">
         <v>24.880000000000003</v>
       </c>
-      <c r="S128" s="38"/>
+      <c r="S128" s="39"/>
       <c r="T128" s="13">
         <v>25.0</v>
       </c>
-      <c r="U128" s="38"/>
+      <c r="U128" s="39"/>
       <c r="V128" s="13" t="s">
         <v>156</v>
       </c>
@@ -12694,7 +12690,7 @@
       <c r="AF128" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG128" s="39">
+      <c r="AG128" s="40">
         <v>2.0</v>
       </c>
       <c r="AH128" s="32"/>
@@ -12744,11 +12740,11 @@
       <c r="L129" s="14">
         <v>4.5</v>
       </c>
-      <c r="M129" s="38"/>
-      <c r="N129" s="38"/>
-      <c r="O129" s="38"/>
-      <c r="P129" s="38"/>
-      <c r="Q129" s="38"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="39"/>
+      <c r="O129" s="39"/>
+      <c r="P129" s="39"/>
+      <c r="Q129" s="39"/>
       <c r="R129" s="13">
         <v>24.81</v>
       </c>
@@ -12784,7 +12780,7 @@
       <c r="AF129" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG129" s="39">
+      <c r="AG129" s="40">
         <v>2.0</v>
       </c>
       <c r="AH129" s="32"/>
@@ -12834,11 +12830,11 @@
       <c r="L130" s="14">
         <v>39.8</v>
       </c>
-      <c r="M130" s="38"/>
-      <c r="N130" s="38"/>
-      <c r="O130" s="38"/>
-      <c r="P130" s="38"/>
-      <c r="Q130" s="38"/>
+      <c r="M130" s="39"/>
+      <c r="N130" s="39"/>
+      <c r="O130" s="39"/>
+      <c r="P130" s="39"/>
+      <c r="Q130" s="39"/>
       <c r="R130" s="13">
         <v>24.81</v>
       </c>
@@ -12874,7 +12870,7 @@
       <c r="AF130" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG130" s="39">
+      <c r="AG130" s="40">
         <v>2.0</v>
       </c>
       <c r="AH130" s="32"/>
@@ -12924,11 +12920,11 @@
       <c r="L131" s="14">
         <v>333.0</v>
       </c>
-      <c r="M131" s="38"/>
-      <c r="N131" s="38"/>
-      <c r="O131" s="38"/>
-      <c r="P131" s="38"/>
-      <c r="Q131" s="38"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="39"/>
+      <c r="O131" s="39"/>
+      <c r="P131" s="39"/>
+      <c r="Q131" s="39"/>
       <c r="R131" s="13">
         <v>24.81</v>
       </c>
@@ -12964,7 +12960,7 @@
       <c r="AF131" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG131" s="39">
+      <c r="AG131" s="40">
         <v>2.0</v>
       </c>
       <c r="AH131" s="32"/>
@@ -13014,11 +13010,11 @@
       <c r="L132" s="14">
         <v>127.1</v>
       </c>
-      <c r="M132" s="38"/>
-      <c r="N132" s="38"/>
-      <c r="O132" s="38"/>
-      <c r="P132" s="38"/>
-      <c r="Q132" s="38"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="39"/>
+      <c r="O132" s="39"/>
+      <c r="P132" s="39"/>
+      <c r="Q132" s="39"/>
       <c r="R132" s="13">
         <v>24.8</v>
       </c>
@@ -13054,7 +13050,7 @@
       <c r="AF132" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG132" s="39">
+      <c r="AG132" s="40">
         <v>2.0</v>
       </c>
       <c r="AH132" s="32"/>
@@ -13104,11 +13100,11 @@
       <c r="L133" s="14">
         <v>33.5</v>
       </c>
-      <c r="M133" s="38"/>
-      <c r="N133" s="38"/>
-      <c r="O133" s="38"/>
-      <c r="P133" s="38"/>
-      <c r="Q133" s="38"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+      <c r="O133" s="39"/>
+      <c r="P133" s="39"/>
+      <c r="Q133" s="39"/>
       <c r="R133" s="13">
         <v>24.8</v>
       </c>
@@ -13144,7 +13140,7 @@
       <c r="AF133" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG133" s="39">
+      <c r="AG133" s="40">
         <v>2.0</v>
       </c>
       <c r="AH133" s="32"/>
@@ -13194,11 +13190,11 @@
       <c r="L134" s="14">
         <v>313.1</v>
       </c>
-      <c r="M134" s="38"/>
-      <c r="N134" s="38"/>
-      <c r="O134" s="38"/>
-      <c r="P134" s="38"/>
-      <c r="Q134" s="38"/>
+      <c r="M134" s="39"/>
+      <c r="N134" s="39"/>
+      <c r="O134" s="39"/>
+      <c r="P134" s="39"/>
+      <c r="Q134" s="39"/>
       <c r="R134" s="13">
         <v>24.8</v>
       </c>
@@ -13234,7 +13230,7 @@
       <c r="AF134" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG134" s="39">
+      <c r="AG134" s="40">
         <v>2.0</v>
       </c>
       <c r="AH134" s="32"/>
@@ -13284,11 +13280,11 @@
       <c r="L135" s="14">
         <v>250.8</v>
       </c>
-      <c r="M135" s="38"/>
-      <c r="N135" s="38"/>
-      <c r="O135" s="38"/>
-      <c r="P135" s="38"/>
-      <c r="Q135" s="38"/>
+      <c r="M135" s="39"/>
+      <c r="N135" s="39"/>
+      <c r="O135" s="39"/>
+      <c r="P135" s="39"/>
+      <c r="Q135" s="39"/>
       <c r="R135" s="13">
         <v>24.8</v>
       </c>
@@ -13324,7 +13320,7 @@
       <c r="AF135" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG135" s="39">
+      <c r="AG135" s="40">
         <v>2.0</v>
       </c>
       <c r="AH135" s="32"/>
@@ -13346,8 +13342,12 @@
       <c r="B136" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
+      <c r="C136" s="34">
+        <v>36.7</v>
+      </c>
+      <c r="D136" s="34">
+        <v>-105.6</v>
+      </c>
       <c r="E136" s="27">
         <v>4.0</v>
       </c>
@@ -13370,21 +13370,21 @@
       <c r="L136" s="14">
         <v>344.3</v>
       </c>
-      <c r="M136" s="38"/>
-      <c r="N136" s="38"/>
-      <c r="O136" s="38"/>
-      <c r="P136" s="38"/>
+      <c r="M136" s="39"/>
+      <c r="N136" s="39"/>
+      <c r="O136" s="39"/>
+      <c r="P136" s="39"/>
       <c r="Q136" s="13">
         <v>25.64</v>
       </c>
       <c r="R136" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S136" s="38"/>
+      <c r="S136" s="39"/>
       <c r="T136" s="13">
         <v>25.72</v>
       </c>
-      <c r="U136" s="38"/>
+      <c r="U136" s="39"/>
       <c r="V136" s="13" t="s">
         <v>156</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="AF136" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG136" s="39">
+      <c r="AG136" s="40">
         <v>0.0</v>
       </c>
       <c r="AH136" s="11">
@@ -13462,21 +13462,21 @@
       <c r="L137" s="14">
         <v>359.6</v>
       </c>
-      <c r="M137" s="38"/>
-      <c r="N137" s="38"/>
-      <c r="O137" s="38"/>
-      <c r="P137" s="38"/>
+      <c r="M137" s="39"/>
+      <c r="N137" s="39"/>
+      <c r="O137" s="39"/>
+      <c r="P137" s="39"/>
       <c r="Q137" s="13">
         <v>25.64</v>
       </c>
       <c r="R137" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S137" s="38"/>
+      <c r="S137" s="39"/>
       <c r="T137" s="13">
         <v>25.72</v>
       </c>
-      <c r="U137" s="38"/>
+      <c r="U137" s="39"/>
       <c r="V137" s="13" t="s">
         <v>156</v>
       </c>
@@ -13500,7 +13500,7 @@
       <c r="AF137" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG137" s="39">
+      <c r="AG137" s="40">
         <v>0.0</v>
       </c>
       <c r="AH137" s="11">
@@ -13554,21 +13554,21 @@
       <c r="L138" s="14">
         <v>198.7</v>
       </c>
-      <c r="M138" s="38"/>
-      <c r="N138" s="38"/>
-      <c r="O138" s="38"/>
-      <c r="P138" s="38"/>
+      <c r="M138" s="39"/>
+      <c r="N138" s="39"/>
+      <c r="O138" s="39"/>
+      <c r="P138" s="39"/>
       <c r="Q138" s="13">
         <v>25.64</v>
       </c>
       <c r="R138" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S138" s="38"/>
+      <c r="S138" s="39"/>
       <c r="T138" s="13">
         <v>25.72</v>
       </c>
-      <c r="U138" s="38"/>
+      <c r="U138" s="39"/>
       <c r="V138" s="13" t="s">
         <v>156</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="AF138" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG138" s="39">
+      <c r="AG138" s="40">
         <v>0.0</v>
       </c>
       <c r="AH138" s="11">
@@ -13646,21 +13646,21 @@
       <c r="L139" s="14">
         <v>0.8</v>
       </c>
-      <c r="M139" s="38"/>
-      <c r="N139" s="38"/>
-      <c r="O139" s="38"/>
-      <c r="P139" s="38"/>
+      <c r="M139" s="39"/>
+      <c r="N139" s="39"/>
+      <c r="O139" s="39"/>
+      <c r="P139" s="39"/>
       <c r="Q139" s="13">
         <v>25.64</v>
       </c>
       <c r="R139" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S139" s="38"/>
+      <c r="S139" s="39"/>
       <c r="T139" s="13">
         <v>25.72</v>
       </c>
-      <c r="U139" s="38"/>
+      <c r="U139" s="39"/>
       <c r="V139" s="13" t="s">
         <v>156</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="AF139" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG139" s="39">
+      <c r="AG139" s="40">
         <v>0.0</v>
       </c>
       <c r="AH139" s="11">
@@ -13738,21 +13738,21 @@
       <c r="L140" s="14">
         <v>353.9</v>
       </c>
-      <c r="M140" s="38"/>
-      <c r="N140" s="38"/>
-      <c r="O140" s="38"/>
-      <c r="P140" s="38"/>
+      <c r="M140" s="39"/>
+      <c r="N140" s="39"/>
+      <c r="O140" s="39"/>
+      <c r="P140" s="39"/>
       <c r="Q140" s="13">
         <v>25.64</v>
       </c>
       <c r="R140" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S140" s="38"/>
+      <c r="S140" s="39"/>
       <c r="T140" s="13">
         <v>25.72</v>
       </c>
-      <c r="U140" s="38"/>
+      <c r="U140" s="39"/>
       <c r="V140" s="13" t="s">
         <v>156</v>
       </c>
@@ -13776,7 +13776,7 @@
       <c r="AF140" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG140" s="39">
+      <c r="AG140" s="40">
         <v>0.0</v>
       </c>
       <c r="AH140" s="11">
@@ -13802,8 +13802,12 @@
       <c r="B141" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C141" s="30"/>
-      <c r="D141" s="30"/>
+      <c r="C141" s="26">
+        <v>36.8</v>
+      </c>
+      <c r="D141" s="34">
+        <v>-105.48</v>
+      </c>
       <c r="E141" s="27">
         <v>5.0</v>
       </c>
@@ -13820,27 +13824,23 @@
         <v>12.1</v>
       </c>
       <c r="J141" s="30"/>
-      <c r="K141" s="14">
-        <v>-71.5</v>
-      </c>
-      <c r="L141" s="14">
-        <v>169.0</v>
-      </c>
-      <c r="M141" s="38"/>
-      <c r="N141" s="38"/>
-      <c r="O141" s="38"/>
-      <c r="P141" s="38"/>
+      <c r="K141" s="38"/>
+      <c r="L141" s="38"/>
+      <c r="M141" s="39"/>
+      <c r="N141" s="39"/>
+      <c r="O141" s="39"/>
+      <c r="P141" s="39"/>
       <c r="Q141" s="13">
         <v>25.64</v>
       </c>
       <c r="R141" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S141" s="38"/>
+      <c r="S141" s="39"/>
       <c r="T141" s="13">
         <v>25.72</v>
       </c>
-      <c r="U141" s="38"/>
+      <c r="U141" s="39"/>
       <c r="V141" s="13" t="s">
         <v>156</v>
       </c>
@@ -13864,7 +13864,7 @@
       <c r="AF141" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG141" s="39">
+      <c r="AG141" s="40">
         <v>0.0</v>
       </c>
       <c r="AH141" s="11">
@@ -13918,21 +13918,21 @@
       <c r="L142" s="14">
         <v>312.0</v>
       </c>
-      <c r="M142" s="38"/>
-      <c r="N142" s="38"/>
-      <c r="O142" s="38"/>
-      <c r="P142" s="38"/>
+      <c r="M142" s="39"/>
+      <c r="N142" s="39"/>
+      <c r="O142" s="39"/>
+      <c r="P142" s="39"/>
       <c r="Q142" s="13">
         <v>25.64</v>
       </c>
       <c r="R142" s="13">
         <v>25.560000000000002</v>
       </c>
-      <c r="S142" s="38"/>
+      <c r="S142" s="39"/>
       <c r="T142" s="13">
         <v>25.72</v>
       </c>
-      <c r="U142" s="38"/>
+      <c r="U142" s="39"/>
       <c r="V142" s="13" t="s">
         <v>156</v>
       </c>
@@ -13956,7 +13956,7 @@
       <c r="AF142" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG142" s="39">
+      <c r="AG142" s="40">
         <v>0.0</v>
       </c>
       <c r="AH142" s="11">
@@ -13982,8 +13982,12 @@
       <c r="B143" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="C143" s="30"/>
-      <c r="D143" s="30"/>
+      <c r="C143" s="26">
+        <v>36.7</v>
+      </c>
+      <c r="D143" s="26">
+        <v>-105.5</v>
+      </c>
       <c r="E143" s="27">
         <v>7.0</v>
       </c>
@@ -14006,10 +14010,10 @@
       <c r="L143" s="14">
         <v>294.6</v>
       </c>
-      <c r="M143" s="38"/>
-      <c r="N143" s="38"/>
-      <c r="O143" s="38"/>
-      <c r="P143" s="38"/>
+      <c r="M143" s="39"/>
+      <c r="N143" s="39"/>
+      <c r="O143" s="39"/>
+      <c r="P143" s="39"/>
       <c r="Q143" s="41"/>
       <c r="R143" s="13">
         <v>25.29</v>
@@ -14046,7 +14050,7 @@
       <c r="AF143" s="11">
         <v>0.0</v>
       </c>
-      <c r="AG143" s="39">
+      <c r="AG143" s="40">
         <v>2.0</v>
       </c>
       <c r="AH143" s="32"/>
@@ -14173,8 +14177,8 @@
       <c r="AI149" s="17"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="42"/>
-      <c r="D150" s="42"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="46"/>
       <c r="E150" s="44"/>
       <c r="F150" s="44"/>
       <c r="I150" s="20"/>
@@ -14191,8 +14195,8 @@
       <c r="AI150" s="17"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="42"/>
-      <c r="D151" s="42"/>
+      <c r="C151" s="21"/>
+      <c r="D151" s="21"/>
       <c r="E151" s="44"/>
       <c r="F151" s="44"/>
       <c r="I151" s="20"/>
@@ -14209,8 +14213,8 @@
       <c r="AI151" s="17"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="42"/>
-      <c r="D152" s="42"/>
+      <c r="C152" s="21"/>
+      <c r="D152" s="21"/>
       <c r="E152" s="44"/>
       <c r="F152" s="44"/>
       <c r="I152" s="20"/>
@@ -14226,8 +14230,8 @@
       <c r="AA152" s="13"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="42"/>
-      <c r="D153" s="42"/>
+      <c r="C153" s="21"/>
+      <c r="D153" s="47"/>
       <c r="E153" s="44"/>
       <c r="F153" s="44"/>
       <c r="I153" s="20"/>
@@ -14243,8 +14247,8 @@
       <c r="AA153" s="13"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="42"/>
-      <c r="D154" s="42"/>
+      <c r="C154" s="21"/>
+      <c r="D154" s="47"/>
       <c r="E154" s="44"/>
       <c r="F154" s="44"/>
       <c r="I154" s="20"/>
@@ -14260,3477 +14264,3515 @@
       <c r="AA154" s="13"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="42"/>
-      <c r="D155" s="42"/>
+      <c r="C155" s="21"/>
+      <c r="D155" s="47"/>
       <c r="G155" s="28"/>
       <c r="H155" s="28"/>
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="46"/>
+      <c r="K155" s="48"/>
       <c r="M155" s="14"/>
       <c r="AA155" s="13"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
+      <c r="C156" s="21"/>
+      <c r="D156" s="47"/>
       <c r="G156" s="28"/>
       <c r="H156" s="28"/>
       <c r="I156" s="20"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="46"/>
+      <c r="K156" s="48"/>
       <c r="M156" s="14"/>
       <c r="AA156" s="13"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
+      <c r="C157" s="21"/>
+      <c r="D157" s="21"/>
       <c r="G157" s="28"/>
       <c r="H157" s="28"/>
       <c r="I157" s="20"/>
       <c r="J157" s="11"/>
-      <c r="K157" s="46"/>
+      <c r="K157" s="48"/>
       <c r="M157" s="14"/>
       <c r="AA157" s="13"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
+      <c r="C158" s="21"/>
+      <c r="D158" s="47"/>
       <c r="G158" s="28"/>
       <c r="H158" s="28"/>
       <c r="I158" s="20"/>
       <c r="J158" s="11"/>
-      <c r="K158" s="46"/>
+      <c r="K158" s="48"/>
       <c r="M158" s="14"/>
       <c r="AA158" s="13"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
       <c r="G159" s="28"/>
       <c r="H159" s="28"/>
       <c r="I159" s="20"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="46"/>
+      <c r="K159" s="48"/>
       <c r="M159" s="14"/>
       <c r="AA159" s="13"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
+      <c r="C160" s="21"/>
+      <c r="D160" s="47"/>
       <c r="G160" s="28"/>
       <c r="H160" s="28"/>
       <c r="I160" s="20"/>
       <c r="J160" s="11"/>
-      <c r="K160" s="46"/>
+      <c r="K160" s="48"/>
       <c r="M160" s="14"/>
       <c r="AA160" s="13"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
       <c r="G161" s="28"/>
       <c r="H161" s="28"/>
       <c r="I161" s="20"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="46"/>
+      <c r="K161" s="48"/>
       <c r="M161" s="14"/>
       <c r="AA161" s="13"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
       <c r="G162" s="28"/>
       <c r="H162" s="28"/>
       <c r="I162" s="20"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="46"/>
+      <c r="K162" s="48"/>
       <c r="M162" s="14"/>
       <c r="AA162" s="13"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
+      <c r="C163" s="21"/>
+      <c r="D163" s="21"/>
       <c r="G163" s="28"/>
       <c r="H163" s="28"/>
       <c r="I163" s="11"/>
       <c r="J163" s="11"/>
-      <c r="K163" s="46"/>
+      <c r="K163" s="48"/>
       <c r="M163" s="14"/>
       <c r="AA163" s="13"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
+      <c r="C164" s="21"/>
+      <c r="D164" s="21"/>
       <c r="G164" s="28"/>
       <c r="H164" s="28"/>
       <c r="I164" s="20"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="46"/>
+      <c r="K164" s="48"/>
       <c r="M164" s="14"/>
       <c r="AA164" s="13"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
+      <c r="C165" s="21"/>
+      <c r="D165" s="21"/>
       <c r="G165" s="28"/>
       <c r="H165" s="28"/>
       <c r="I165" s="20"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="46"/>
+      <c r="K165" s="48"/>
       <c r="M165" s="14"/>
       <c r="AA165" s="13"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
+      <c r="C166" s="21"/>
+      <c r="D166" s="47"/>
       <c r="I166" s="20"/>
       <c r="J166" s="11"/>
-      <c r="K166" s="46"/>
+      <c r="K166" s="48"/>
       <c r="M166" s="14"/>
       <c r="AA166" s="13"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
+      <c r="C167" s="21"/>
+      <c r="D167" s="47"/>
       <c r="I167" s="20"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="46"/>
+      <c r="K167" s="48"/>
       <c r="M167" s="14"/>
       <c r="AA167" s="13"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
       <c r="I168" s="20"/>
       <c r="J168" s="11"/>
-      <c r="K168" s="46"/>
+      <c r="K168" s="48"/>
       <c r="M168" s="14"/>
       <c r="AA168" s="13"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
+      <c r="C169" s="21"/>
+      <c r="D169" s="21"/>
       <c r="I169" s="20"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="46"/>
+      <c r="K169" s="48"/>
       <c r="M169" s="14"/>
       <c r="AA169" s="13"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
       <c r="I170" s="20"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="46"/>
+      <c r="K170" s="48"/>
       <c r="M170" s="14"/>
       <c r="AA170" s="13"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
       <c r="I171" s="11"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="46"/>
+      <c r="K171" s="48"/>
       <c r="M171" s="14"/>
       <c r="AA171" s="13"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
+      <c r="C172" s="21"/>
+      <c r="D172" s="21"/>
       <c r="I172" s="20"/>
       <c r="J172" s="11"/>
-      <c r="K172" s="46"/>
+      <c r="K172" s="48"/>
       <c r="M172" s="14"/>
       <c r="AA172" s="13"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
+      <c r="C173" s="21"/>
+      <c r="D173" s="21"/>
       <c r="I173" s="20"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="46"/>
+      <c r="K173" s="48"/>
       <c r="M173" s="14"/>
       <c r="AA173" s="13"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
       <c r="I174" s="20"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="46"/>
+      <c r="K174" s="48"/>
       <c r="M174" s="14"/>
       <c r="AA174" s="13"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
       <c r="I175" s="20"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="46"/>
+      <c r="K175" s="48"/>
       <c r="M175" s="14"/>
       <c r="AA175" s="13"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
       <c r="I176" s="20"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="46"/>
+      <c r="K176" s="48"/>
       <c r="M176" s="14"/>
       <c r="AA176" s="13"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
       <c r="I177" s="20"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="46"/>
+      <c r="K177" s="48"/>
       <c r="M177" s="14"/>
       <c r="AA177" s="13"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
       <c r="I178" s="20"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="46"/>
+      <c r="K178" s="48"/>
       <c r="M178" s="14"/>
       <c r="AA178" s="13"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
       <c r="I179" s="11"/>
       <c r="J179" s="11"/>
-      <c r="K179" s="46"/>
+      <c r="K179" s="48"/>
       <c r="M179" s="14"/>
       <c r="AA179" s="13"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
       <c r="I180" s="20"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="46"/>
+      <c r="K180" s="48"/>
       <c r="M180" s="14"/>
       <c r="AA180" s="13"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="I181" s="20"/>
       <c r="J181" s="11"/>
-      <c r="K181" s="46"/>
+      <c r="K181" s="48"/>
       <c r="M181" s="14"/>
       <c r="AA181" s="13"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
       <c r="I182" s="20"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="46"/>
+      <c r="K182" s="48"/>
       <c r="AA182" s="13"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
       <c r="I183" s="20"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="46"/>
+      <c r="K183" s="48"/>
       <c r="AA183" s="13"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
       <c r="I184" s="20"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="46"/>
+      <c r="K184" s="48"/>
       <c r="AA184" s="13"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
       <c r="I185" s="20"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="46"/>
+      <c r="K185" s="48"/>
       <c r="AA185" s="13"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
       <c r="I186" s="20"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="46"/>
+      <c r="K186" s="48"/>
       <c r="AA186" s="13"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="I187" s="11"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="46"/>
+      <c r="K187" s="48"/>
       <c r="AA187" s="13"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
       <c r="J188" s="11"/>
-      <c r="K188" s="46"/>
+      <c r="K188" s="48"/>
       <c r="AA188" s="13"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
       <c r="J189" s="11"/>
-      <c r="K189" s="46"/>
+      <c r="K189" s="48"/>
       <c r="AA189" s="13"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="J190" s="11"/>
-      <c r="K190" s="46"/>
+      <c r="K190" s="48"/>
       <c r="AA190" s="13"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
       <c r="J191" s="11"/>
-      <c r="K191" s="46"/>
+      <c r="K191" s="48"/>
       <c r="AA191" s="13"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
       <c r="J192" s="11"/>
-      <c r="K192" s="46"/>
+      <c r="K192" s="48"/>
       <c r="AA192" s="13"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
       <c r="J193" s="11"/>
-      <c r="K193" s="46"/>
+      <c r="K193" s="48"/>
       <c r="AA193" s="13"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
       <c r="J194" s="11"/>
-      <c r="K194" s="46"/>
+      <c r="K194" s="48"/>
       <c r="AA194" s="13"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="J195" s="11"/>
-      <c r="K195" s="46"/>
+      <c r="K195" s="48"/>
       <c r="AA195" s="13"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
       <c r="J196" s="11"/>
-      <c r="K196" s="46"/>
+      <c r="K196" s="48"/>
       <c r="AA196" s="13"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
       <c r="J197" s="11"/>
-      <c r="K197" s="46"/>
+      <c r="K197" s="48"/>
       <c r="AA197" s="13"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
       <c r="J198" s="11"/>
-      <c r="K198" s="46"/>
+      <c r="K198" s="48"/>
       <c r="AA198" s="13"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
       <c r="J199" s="11"/>
-      <c r="K199" s="46"/>
+      <c r="K199" s="48"/>
       <c r="AA199" s="13"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
       <c r="J200" s="11"/>
-      <c r="K200" s="46"/>
+      <c r="K200" s="48"/>
       <c r="AA200" s="13"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
       <c r="J201" s="11"/>
-      <c r="K201" s="46"/>
+      <c r="K201" s="48"/>
       <c r="AA201" s="13"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="J202" s="46"/>
-      <c r="K202" s="46"/>
+      <c r="J202" s="48"/>
+      <c r="K202" s="48"/>
       <c r="AA202" s="13"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="J203" s="46"/>
-      <c r="K203" s="46"/>
+      <c r="J203" s="48"/>
+      <c r="K203" s="48"/>
       <c r="AA203" s="13"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="J204" s="46"/>
-      <c r="K204" s="46"/>
+      <c r="J204" s="48"/>
+      <c r="K204" s="48"/>
       <c r="AA204" s="13"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="J205" s="46"/>
-      <c r="K205" s="46"/>
+      <c r="J205" s="48"/>
+      <c r="K205" s="48"/>
       <c r="AA205" s="13"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="48"/>
       <c r="AA206" s="13"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="J207" s="46"/>
-      <c r="K207" s="46"/>
+      <c r="J207" s="48"/>
+      <c r="K207" s="48"/>
       <c r="AA207" s="13"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="J208" s="46"/>
-      <c r="K208" s="46"/>
+      <c r="J208" s="48"/>
+      <c r="K208" s="48"/>
       <c r="AA208" s="13"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="J209" s="46"/>
-      <c r="K209" s="46"/>
+      <c r="J209" s="48"/>
+      <c r="K209" s="48"/>
       <c r="AA209" s="13"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="J210" s="46"/>
-      <c r="K210" s="46"/>
+      <c r="J210" s="48"/>
+      <c r="K210" s="48"/>
       <c r="AA210" s="13"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="J211" s="46"/>
-      <c r="K211" s="46"/>
+      <c r="J211" s="48"/>
+      <c r="K211" s="48"/>
       <c r="AA211" s="13"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="J212" s="46"/>
-      <c r="K212" s="46"/>
+      <c r="J212" s="48"/>
+      <c r="K212" s="48"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="J213" s="46"/>
-      <c r="K213" s="46"/>
+      <c r="J213" s="48"/>
+      <c r="K213" s="48"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="J214" s="46"/>
-      <c r="K214" s="46"/>
+      <c r="J214" s="48"/>
+      <c r="K214" s="48"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="J215" s="46"/>
-      <c r="K215" s="46"/>
+      <c r="J215" s="48"/>
+      <c r="K215" s="48"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="J216" s="46"/>
-      <c r="K216" s="46"/>
+      <c r="J216" s="48"/>
+      <c r="K216" s="48"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="J217" s="46"/>
-      <c r="K217" s="46"/>
+      <c r="J217" s="48"/>
+      <c r="K217" s="48"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="J218" s="46"/>
-      <c r="K218" s="46"/>
+      <c r="J218" s="48"/>
+      <c r="K218" s="48"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="J219" s="46"/>
-      <c r="K219" s="46"/>
+      <c r="J219" s="48"/>
+      <c r="K219" s="48"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="J220" s="46"/>
-      <c r="K220" s="46"/>
+      <c r="J220" s="48"/>
+      <c r="K220" s="48"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="J221" s="46"/>
-      <c r="K221" s="46"/>
+      <c r="J221" s="48"/>
+      <c r="K221" s="48"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="J222" s="46"/>
-      <c r="K222" s="46"/>
+      <c r="J222" s="48"/>
+      <c r="K222" s="48"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="J223" s="46"/>
-      <c r="K223" s="46"/>
+      <c r="J223" s="48"/>
+      <c r="K223" s="48"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="J224" s="46"/>
-      <c r="K224" s="46"/>
+      <c r="J224" s="48"/>
+      <c r="K224" s="48"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="J225" s="46"/>
-      <c r="K225" s="46"/>
+      <c r="J225" s="48"/>
+      <c r="K225" s="48"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="J226" s="46"/>
-      <c r="K226" s="46"/>
+      <c r="J226" s="48"/>
+      <c r="K226" s="48"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="J227" s="46"/>
-      <c r="K227" s="46"/>
+      <c r="J227" s="48"/>
+      <c r="K227" s="48"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="J228" s="46"/>
-      <c r="K228" s="46"/>
+      <c r="J228" s="48"/>
+      <c r="K228" s="48"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="J229" s="46"/>
-      <c r="K229" s="46"/>
+      <c r="J229" s="48"/>
+      <c r="K229" s="48"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="J230" s="46"/>
-      <c r="K230" s="46"/>
+      <c r="J230" s="48"/>
+      <c r="K230" s="48"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="J231" s="46"/>
-      <c r="K231" s="46"/>
+      <c r="J231" s="48"/>
+      <c r="K231" s="48"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="J232" s="46"/>
-      <c r="K232" s="46"/>
+      <c r="J232" s="48"/>
+      <c r="K232" s="48"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="J233" s="46"/>
-      <c r="K233" s="46"/>
+      <c r="J233" s="48"/>
+      <c r="K233" s="48"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="J234" s="46"/>
-      <c r="K234" s="46"/>
+      <c r="J234" s="48"/>
+      <c r="K234" s="48"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="J235" s="46"/>
-      <c r="K235" s="46"/>
+      <c r="J235" s="48"/>
+      <c r="K235" s="48"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="J236" s="46"/>
-      <c r="K236" s="46"/>
+      <c r="J236" s="48"/>
+      <c r="K236" s="48"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="J237" s="46"/>
-      <c r="K237" s="46"/>
+      <c r="J237" s="48"/>
+      <c r="K237" s="48"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="J238" s="46"/>
-      <c r="K238" s="46"/>
+      <c r="J238" s="48"/>
+      <c r="K238" s="48"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="J239" s="46"/>
-      <c r="K239" s="46"/>
+      <c r="J239" s="48"/>
+      <c r="K239" s="48"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="J240" s="46"/>
-      <c r="K240" s="46"/>
+      <c r="J240" s="48"/>
+      <c r="K240" s="48"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="J241" s="46"/>
-      <c r="K241" s="46"/>
+      <c r="J241" s="48"/>
+      <c r="K241" s="48"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="J242" s="46"/>
-      <c r="K242" s="46"/>
+      <c r="J242" s="48"/>
+      <c r="K242" s="48"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="J243" s="46"/>
-      <c r="K243" s="46"/>
+      <c r="J243" s="48"/>
+      <c r="K243" s="48"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="J244" s="46"/>
-      <c r="K244" s="46"/>
+      <c r="J244" s="48"/>
+      <c r="K244" s="48"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="J245" s="46"/>
-      <c r="K245" s="46"/>
+      <c r="J245" s="48"/>
+      <c r="K245" s="48"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="J246" s="46"/>
-      <c r="K246" s="46"/>
+      <c r="J246" s="48"/>
+      <c r="K246" s="48"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="J247" s="46"/>
-      <c r="K247" s="46"/>
+      <c r="J247" s="48"/>
+      <c r="K247" s="48"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="J248" s="46"/>
-      <c r="K248" s="46"/>
+      <c r="J248" s="48"/>
+      <c r="K248" s="48"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="J249" s="46"/>
-      <c r="K249" s="46"/>
+      <c r="J249" s="48"/>
+      <c r="K249" s="48"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="J250" s="46"/>
-      <c r="K250" s="46"/>
+      <c r="J250" s="48"/>
+      <c r="K250" s="48"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="J251" s="46"/>
-      <c r="K251" s="46"/>
+      <c r="J251" s="48"/>
+      <c r="K251" s="48"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="J252" s="46"/>
-      <c r="K252" s="46"/>
+      <c r="J252" s="48"/>
+      <c r="K252" s="48"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="J253" s="46"/>
-      <c r="K253" s="46"/>
+      <c r="J253" s="48"/>
+      <c r="K253" s="48"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="J254" s="46"/>
-      <c r="K254" s="46"/>
+      <c r="J254" s="48"/>
+      <c r="K254" s="48"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="J255" s="46"/>
-      <c r="K255" s="46"/>
+      <c r="J255" s="48"/>
+      <c r="K255" s="48"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="J256" s="46"/>
-      <c r="K256" s="46"/>
+      <c r="J256" s="48"/>
+      <c r="K256" s="48"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="J257" s="46"/>
-      <c r="K257" s="46"/>
+      <c r="J257" s="48"/>
+      <c r="K257" s="48"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="J258" s="46"/>
-      <c r="K258" s="46"/>
+      <c r="J258" s="48"/>
+      <c r="K258" s="48"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="J259" s="46"/>
-      <c r="K259" s="46"/>
+      <c r="J259" s="48"/>
+      <c r="K259" s="48"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="J260" s="46"/>
-      <c r="K260" s="46"/>
+      <c r="J260" s="48"/>
+      <c r="K260" s="48"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="J261" s="46"/>
-      <c r="K261" s="46"/>
+      <c r="J261" s="48"/>
+      <c r="K261" s="48"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="J262" s="46"/>
-      <c r="K262" s="46"/>
+      <c r="J262" s="48"/>
+      <c r="K262" s="48"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="J263" s="46"/>
-      <c r="K263" s="46"/>
+      <c r="J263" s="48"/>
+      <c r="K263" s="48"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="J264" s="46"/>
-      <c r="K264" s="46"/>
+      <c r="J264" s="48"/>
+      <c r="K264" s="48"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="J265" s="46"/>
-      <c r="K265" s="46"/>
+      <c r="J265" s="48"/>
+      <c r="K265" s="48"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="J266" s="46"/>
-      <c r="K266" s="46"/>
+      <c r="J266" s="48"/>
+      <c r="K266" s="48"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="J267" s="46"/>
-      <c r="K267" s="46"/>
+      <c r="J267" s="48"/>
+      <c r="K267" s="48"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="J268" s="46"/>
-      <c r="K268" s="46"/>
+      <c r="J268" s="48"/>
+      <c r="K268" s="48"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="J269" s="46"/>
-      <c r="K269" s="46"/>
+      <c r="J269" s="48"/>
+      <c r="K269" s="48"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="J270" s="46"/>
-      <c r="K270" s="46"/>
+      <c r="J270" s="48"/>
+      <c r="K270" s="48"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="J271" s="46"/>
-      <c r="K271" s="46"/>
+      <c r="J271" s="48"/>
+      <c r="K271" s="48"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="J272" s="46"/>
-      <c r="K272" s="46"/>
+      <c r="J272" s="48"/>
+      <c r="K272" s="48"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="J273" s="46"/>
-      <c r="K273" s="46"/>
+      <c r="J273" s="48"/>
+      <c r="K273" s="48"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="J274" s="46"/>
-      <c r="K274" s="46"/>
+      <c r="J274" s="48"/>
+      <c r="K274" s="48"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="J275" s="46"/>
-      <c r="K275" s="46"/>
+      <c r="J275" s="48"/>
+      <c r="K275" s="48"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="J276" s="46"/>
-      <c r="K276" s="46"/>
+      <c r="J276" s="48"/>
+      <c r="K276" s="48"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="J277" s="46"/>
-      <c r="K277" s="46"/>
+      <c r="J277" s="48"/>
+      <c r="K277" s="48"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="J278" s="46"/>
-      <c r="K278" s="46"/>
+      <c r="J278" s="48"/>
+      <c r="K278" s="48"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="J279" s="46"/>
-      <c r="K279" s="46"/>
+      <c r="J279" s="48"/>
+      <c r="K279" s="48"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="J280" s="46"/>
-      <c r="K280" s="46"/>
+      <c r="J280" s="48"/>
+      <c r="K280" s="48"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="J281" s="46"/>
-      <c r="K281" s="46"/>
+      <c r="J281" s="48"/>
+      <c r="K281" s="48"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="J282" s="46"/>
-      <c r="K282" s="46"/>
+      <c r="J282" s="48"/>
+      <c r="K282" s="48"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="J283" s="46"/>
-      <c r="K283" s="46"/>
+      <c r="J283" s="48"/>
+      <c r="K283" s="48"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="J284" s="46"/>
-      <c r="K284" s="46"/>
+      <c r="J284" s="48"/>
+      <c r="K284" s="48"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="J285" s="46"/>
-      <c r="K285" s="46"/>
+      <c r="J285" s="48"/>
+      <c r="K285" s="48"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="J286" s="46"/>
-      <c r="K286" s="46"/>
+      <c r="J286" s="48"/>
+      <c r="K286" s="48"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="J287" s="46"/>
-      <c r="K287" s="46"/>
+      <c r="J287" s="48"/>
+      <c r="K287" s="48"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="J288" s="46"/>
-      <c r="K288" s="46"/>
+      <c r="J288" s="48"/>
+      <c r="K288" s="48"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="J289" s="46"/>
-      <c r="K289" s="46"/>
+      <c r="J289" s="48"/>
+      <c r="K289" s="48"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="J290" s="46"/>
-      <c r="K290" s="46"/>
+      <c r="J290" s="48"/>
+      <c r="K290" s="48"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="J291" s="46"/>
-      <c r="K291" s="46"/>
+      <c r="J291" s="48"/>
+      <c r="K291" s="48"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="J292" s="46"/>
-      <c r="K292" s="46"/>
+      <c r="J292" s="48"/>
+      <c r="K292" s="48"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="J293" s="46"/>
-      <c r="K293" s="46"/>
+      <c r="J293" s="48"/>
+      <c r="K293" s="48"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="J294" s="46"/>
-      <c r="K294" s="46"/>
+      <c r="J294" s="48"/>
+      <c r="K294" s="48"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="J295" s="46"/>
-      <c r="K295" s="46"/>
+      <c r="J295" s="48"/>
+      <c r="K295" s="48"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="J296" s="46"/>
-      <c r="K296" s="46"/>
+      <c r="J296" s="48"/>
+      <c r="K296" s="48"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="J297" s="46"/>
-      <c r="K297" s="46"/>
+      <c r="J297" s="48"/>
+      <c r="K297" s="48"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="J298" s="46"/>
-      <c r="K298" s="46"/>
+      <c r="J298" s="48"/>
+      <c r="K298" s="48"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="J299" s="46"/>
-      <c r="K299" s="46"/>
+      <c r="J299" s="48"/>
+      <c r="K299" s="48"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="J300" s="46"/>
-      <c r="K300" s="46"/>
+      <c r="J300" s="48"/>
+      <c r="K300" s="48"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="J301" s="46"/>
-      <c r="K301" s="46"/>
+      <c r="J301" s="48"/>
+      <c r="K301" s="48"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="J302" s="46"/>
-      <c r="K302" s="46"/>
+      <c r="J302" s="48"/>
+      <c r="K302" s="48"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="J303" s="46"/>
-      <c r="K303" s="46"/>
+      <c r="J303" s="48"/>
+      <c r="K303" s="48"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="J304" s="46"/>
-      <c r="K304" s="46"/>
+      <c r="J304" s="48"/>
+      <c r="K304" s="48"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="J305" s="46"/>
-      <c r="K305" s="46"/>
+      <c r="J305" s="48"/>
+      <c r="K305" s="48"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="J306" s="46"/>
-      <c r="K306" s="46"/>
+      <c r="J306" s="48"/>
+      <c r="K306" s="48"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="J307" s="46"/>
-      <c r="K307" s="46"/>
+      <c r="J307" s="48"/>
+      <c r="K307" s="48"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="J308" s="46"/>
-      <c r="K308" s="46"/>
+      <c r="J308" s="48"/>
+      <c r="K308" s="48"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="J309" s="46"/>
-      <c r="K309" s="46"/>
+      <c r="J309" s="48"/>
+      <c r="K309" s="48"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="J310" s="46"/>
-      <c r="K310" s="46"/>
+      <c r="J310" s="48"/>
+      <c r="K310" s="48"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="J311" s="46"/>
-      <c r="K311" s="46"/>
+      <c r="J311" s="48"/>
+      <c r="K311" s="48"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="J312" s="46"/>
-      <c r="K312" s="46"/>
+      <c r="J312" s="48"/>
+      <c r="K312" s="48"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="J313" s="46"/>
-      <c r="K313" s="46"/>
+      <c r="J313" s="48"/>
+      <c r="K313" s="48"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="J314" s="46"/>
-      <c r="K314" s="46"/>
+      <c r="J314" s="48"/>
+      <c r="K314" s="48"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="J315" s="46"/>
-      <c r="K315" s="46"/>
+      <c r="J315" s="48"/>
+      <c r="K315" s="48"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="J316" s="46"/>
-      <c r="K316" s="46"/>
+      <c r="J316" s="48"/>
+      <c r="K316" s="48"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="J317" s="46"/>
-      <c r="K317" s="46"/>
+      <c r="J317" s="48"/>
+      <c r="K317" s="48"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="J318" s="46"/>
-      <c r="K318" s="46"/>
+      <c r="J318" s="48"/>
+      <c r="K318" s="48"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="J319" s="46"/>
-      <c r="K319" s="46"/>
+      <c r="J319" s="48"/>
+      <c r="K319" s="48"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="J320" s="46"/>
-      <c r="K320" s="46"/>
+      <c r="J320" s="48"/>
+      <c r="K320" s="48"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="J321" s="46"/>
-      <c r="K321" s="46"/>
+      <c r="J321" s="48"/>
+      <c r="K321" s="48"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="J322" s="46"/>
-      <c r="K322" s="46"/>
+      <c r="J322" s="48"/>
+      <c r="K322" s="48"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="J323" s="46"/>
-      <c r="K323" s="46"/>
+      <c r="J323" s="48"/>
+      <c r="K323" s="48"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="J324" s="46"/>
-      <c r="K324" s="46"/>
+      <c r="J324" s="48"/>
+      <c r="K324" s="48"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="J325" s="46"/>
-      <c r="K325" s="46"/>
+      <c r="J325" s="48"/>
+      <c r="K325" s="48"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="J326" s="46"/>
-      <c r="K326" s="46"/>
+      <c r="J326" s="48"/>
+      <c r="K326" s="48"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="J327" s="46"/>
-      <c r="K327" s="46"/>
+      <c r="J327" s="48"/>
+      <c r="K327" s="48"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="J328" s="46"/>
-      <c r="K328" s="46"/>
+      <c r="J328" s="48"/>
+      <c r="K328" s="48"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="J329" s="46"/>
-      <c r="K329" s="46"/>
+      <c r="J329" s="48"/>
+      <c r="K329" s="48"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="J330" s="46"/>
-      <c r="K330" s="46"/>
+      <c r="J330" s="48"/>
+      <c r="K330" s="48"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="J331" s="46"/>
-      <c r="K331" s="46"/>
+      <c r="J331" s="48"/>
+      <c r="K331" s="48"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="J332" s="46"/>
-      <c r="K332" s="46"/>
+      <c r="J332" s="48"/>
+      <c r="K332" s="48"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="J333" s="46"/>
-      <c r="K333" s="46"/>
+      <c r="J333" s="48"/>
+      <c r="K333" s="48"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="J334" s="46"/>
-      <c r="K334" s="46"/>
+      <c r="J334" s="48"/>
+      <c r="K334" s="48"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="J335" s="46"/>
-      <c r="K335" s="46"/>
+      <c r="J335" s="48"/>
+      <c r="K335" s="48"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="J336" s="46"/>
-      <c r="K336" s="46"/>
+      <c r="J336" s="48"/>
+      <c r="K336" s="48"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="J337" s="46"/>
-      <c r="K337" s="46"/>
+      <c r="J337" s="48"/>
+      <c r="K337" s="48"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="J338" s="46"/>
-      <c r="K338" s="46"/>
+      <c r="J338" s="48"/>
+      <c r="K338" s="48"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="J339" s="46"/>
-      <c r="K339" s="46"/>
+      <c r="J339" s="48"/>
+      <c r="K339" s="48"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="J340" s="46"/>
-      <c r="K340" s="46"/>
+      <c r="J340" s="48"/>
+      <c r="K340" s="48"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="J341" s="46"/>
-      <c r="K341" s="46"/>
+      <c r="J341" s="48"/>
+      <c r="K341" s="48"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="J342" s="46"/>
-      <c r="K342" s="46"/>
+      <c r="J342" s="48"/>
+      <c r="K342" s="48"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="J343" s="46"/>
-      <c r="K343" s="46"/>
+      <c r="J343" s="48"/>
+      <c r="K343" s="48"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="J344" s="46"/>
-      <c r="K344" s="46"/>
+      <c r="J344" s="48"/>
+      <c r="K344" s="48"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="J345" s="46"/>
-      <c r="K345" s="46"/>
+      <c r="J345" s="48"/>
+      <c r="K345" s="48"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="J346" s="46"/>
-      <c r="K346" s="46"/>
+      <c r="J346" s="48"/>
+      <c r="K346" s="48"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="J347" s="46"/>
-      <c r="K347" s="46"/>
+      <c r="J347" s="48"/>
+      <c r="K347" s="48"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="J348" s="46"/>
-      <c r="K348" s="46"/>
+      <c r="J348" s="48"/>
+      <c r="K348" s="48"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="J349" s="46"/>
-      <c r="K349" s="46"/>
+      <c r="J349" s="48"/>
+      <c r="K349" s="48"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="J350" s="46"/>
-      <c r="K350" s="46"/>
+      <c r="J350" s="48"/>
+      <c r="K350" s="48"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="J351" s="46"/>
-      <c r="K351" s="46"/>
+      <c r="J351" s="48"/>
+      <c r="K351" s="48"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="J352" s="46"/>
-      <c r="K352" s="46"/>
+      <c r="J352" s="48"/>
+      <c r="K352" s="48"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="J353" s="46"/>
-      <c r="K353" s="46"/>
+      <c r="J353" s="48"/>
+      <c r="K353" s="48"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="J354" s="46"/>
-      <c r="K354" s="46"/>
+      <c r="J354" s="48"/>
+      <c r="K354" s="48"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="J355" s="46"/>
-      <c r="K355" s="46"/>
+      <c r="J355" s="48"/>
+      <c r="K355" s="48"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="J356" s="46"/>
-      <c r="K356" s="46"/>
+      <c r="J356" s="48"/>
+      <c r="K356" s="48"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="J357" s="46"/>
-      <c r="K357" s="46"/>
+      <c r="J357" s="48"/>
+      <c r="K357" s="48"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="J358" s="46"/>
-      <c r="K358" s="46"/>
+      <c r="J358" s="48"/>
+      <c r="K358" s="48"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="J359" s="46"/>
-      <c r="K359" s="46"/>
+      <c r="J359" s="48"/>
+      <c r="K359" s="48"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="J360" s="46"/>
-      <c r="K360" s="46"/>
+      <c r="J360" s="48"/>
+      <c r="K360" s="48"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="J361" s="46"/>
-      <c r="K361" s="46"/>
+      <c r="J361" s="48"/>
+      <c r="K361" s="48"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="J362" s="46"/>
-      <c r="K362" s="46"/>
+      <c r="J362" s="48"/>
+      <c r="K362" s="48"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="J363" s="46"/>
-      <c r="K363" s="46"/>
+      <c r="J363" s="48"/>
+      <c r="K363" s="48"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="J364" s="46"/>
-      <c r="K364" s="46"/>
+      <c r="J364" s="48"/>
+      <c r="K364" s="48"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="J365" s="46"/>
-      <c r="K365" s="46"/>
+      <c r="J365" s="48"/>
+      <c r="K365" s="48"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="J366" s="46"/>
-      <c r="K366" s="46"/>
+      <c r="J366" s="48"/>
+      <c r="K366" s="48"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="J367" s="46"/>
-      <c r="K367" s="46"/>
+      <c r="J367" s="48"/>
+      <c r="K367" s="48"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="J368" s="46"/>
-      <c r="K368" s="46"/>
+      <c r="J368" s="48"/>
+      <c r="K368" s="48"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="J369" s="46"/>
-      <c r="K369" s="46"/>
+      <c r="J369" s="48"/>
+      <c r="K369" s="48"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="J370" s="46"/>
-      <c r="K370" s="46"/>
+      <c r="J370" s="48"/>
+      <c r="K370" s="48"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="J371" s="46"/>
-      <c r="K371" s="46"/>
+      <c r="J371" s="48"/>
+      <c r="K371" s="48"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="J372" s="46"/>
-      <c r="K372" s="46"/>
+      <c r="J372" s="48"/>
+      <c r="K372" s="48"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="J373" s="46"/>
-      <c r="K373" s="46"/>
+      <c r="J373" s="48"/>
+      <c r="K373" s="48"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="J374" s="46"/>
-      <c r="K374" s="46"/>
+      <c r="J374" s="48"/>
+      <c r="K374" s="48"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="J375" s="46"/>
-      <c r="K375" s="46"/>
+      <c r="J375" s="48"/>
+      <c r="K375" s="48"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="J376" s="46"/>
-      <c r="K376" s="46"/>
+      <c r="J376" s="48"/>
+      <c r="K376" s="48"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="J377" s="46"/>
-      <c r="K377" s="46"/>
+      <c r="J377" s="48"/>
+      <c r="K377" s="48"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="J378" s="46"/>
-      <c r="K378" s="46"/>
+      <c r="J378" s="48"/>
+      <c r="K378" s="48"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="J379" s="46"/>
-      <c r="K379" s="46"/>
+      <c r="J379" s="48"/>
+      <c r="K379" s="48"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="J380" s="46"/>
-      <c r="K380" s="46"/>
+      <c r="J380" s="48"/>
+      <c r="K380" s="48"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="J381" s="46"/>
-      <c r="K381" s="46"/>
+      <c r="J381" s="48"/>
+      <c r="K381" s="48"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="J382" s="46"/>
-      <c r="K382" s="46"/>
+      <c r="J382" s="48"/>
+      <c r="K382" s="48"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="J383" s="46"/>
-      <c r="K383" s="46"/>
+      <c r="J383" s="48"/>
+      <c r="K383" s="48"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="J384" s="46"/>
-      <c r="K384" s="46"/>
+      <c r="J384" s="48"/>
+      <c r="K384" s="48"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="J385" s="46"/>
-      <c r="K385" s="46"/>
+      <c r="J385" s="48"/>
+      <c r="K385" s="48"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="J386" s="46"/>
-      <c r="K386" s="46"/>
+      <c r="J386" s="48"/>
+      <c r="K386" s="48"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="J387" s="46"/>
-      <c r="K387" s="46"/>
+      <c r="J387" s="48"/>
+      <c r="K387" s="48"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="J388" s="46"/>
-      <c r="K388" s="46"/>
+      <c r="J388" s="48"/>
+      <c r="K388" s="48"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="J389" s="46"/>
-      <c r="K389" s="46"/>
+      <c r="J389" s="48"/>
+      <c r="K389" s="48"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="J390" s="46"/>
-      <c r="K390" s="46"/>
+      <c r="J390" s="48"/>
+      <c r="K390" s="48"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="J391" s="46"/>
-      <c r="K391" s="46"/>
+      <c r="J391" s="48"/>
+      <c r="K391" s="48"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="J392" s="46"/>
-      <c r="K392" s="46"/>
+      <c r="J392" s="48"/>
+      <c r="K392" s="48"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="J393" s="46"/>
-      <c r="K393" s="46"/>
+      <c r="J393" s="48"/>
+      <c r="K393" s="48"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="J394" s="46"/>
-      <c r="K394" s="46"/>
+      <c r="J394" s="48"/>
+      <c r="K394" s="48"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="J395" s="46"/>
-      <c r="K395" s="46"/>
+      <c r="J395" s="48"/>
+      <c r="K395" s="48"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="J396" s="46"/>
-      <c r="K396" s="46"/>
+      <c r="J396" s="48"/>
+      <c r="K396" s="48"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="J397" s="46"/>
-      <c r="K397" s="46"/>
+      <c r="J397" s="48"/>
+      <c r="K397" s="48"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="J398" s="46"/>
-      <c r="K398" s="46"/>
+      <c r="J398" s="48"/>
+      <c r="K398" s="48"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="J399" s="46"/>
-      <c r="K399" s="46"/>
+      <c r="J399" s="48"/>
+      <c r="K399" s="48"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="J400" s="46"/>
-      <c r="K400" s="46"/>
+      <c r="J400" s="48"/>
+      <c r="K400" s="48"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="J401" s="46"/>
-      <c r="K401" s="46"/>
+      <c r="J401" s="48"/>
+      <c r="K401" s="48"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="J402" s="46"/>
-      <c r="K402" s="46"/>
+      <c r="J402" s="48"/>
+      <c r="K402" s="48"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="J403" s="46"/>
-      <c r="K403" s="46"/>
+      <c r="J403" s="48"/>
+      <c r="K403" s="48"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="J404" s="46"/>
-      <c r="K404" s="46"/>
+      <c r="J404" s="48"/>
+      <c r="K404" s="48"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="J405" s="46"/>
-      <c r="K405" s="46"/>
+      <c r="J405" s="48"/>
+      <c r="K405" s="48"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="J406" s="46"/>
-      <c r="K406" s="46"/>
+      <c r="J406" s="48"/>
+      <c r="K406" s="48"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="J407" s="46"/>
-      <c r="K407" s="46"/>
+      <c r="J407" s="48"/>
+      <c r="K407" s="48"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="J408" s="46"/>
-      <c r="K408" s="46"/>
+      <c r="J408" s="48"/>
+      <c r="K408" s="48"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="J409" s="46"/>
-      <c r="K409" s="46"/>
+      <c r="J409" s="48"/>
+      <c r="K409" s="48"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="J410" s="46"/>
-      <c r="K410" s="46"/>
+      <c r="J410" s="48"/>
+      <c r="K410" s="48"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="J411" s="46"/>
-      <c r="K411" s="46"/>
+      <c r="J411" s="48"/>
+      <c r="K411" s="48"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="J412" s="46"/>
-      <c r="K412" s="46"/>
+      <c r="J412" s="48"/>
+      <c r="K412" s="48"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="J413" s="46"/>
-      <c r="K413" s="46"/>
+      <c r="J413" s="48"/>
+      <c r="K413" s="48"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="J414" s="46"/>
-      <c r="K414" s="46"/>
+      <c r="J414" s="48"/>
+      <c r="K414" s="48"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="J415" s="46"/>
-      <c r="K415" s="46"/>
+      <c r="J415" s="48"/>
+      <c r="K415" s="48"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="J416" s="46"/>
-      <c r="K416" s="46"/>
+      <c r="J416" s="48"/>
+      <c r="K416" s="48"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="J417" s="46"/>
-      <c r="K417" s="46"/>
+      <c r="J417" s="48"/>
+      <c r="K417" s="48"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="J418" s="46"/>
-      <c r="K418" s="46"/>
+      <c r="J418" s="48"/>
+      <c r="K418" s="48"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="J419" s="46"/>
-      <c r="K419" s="46"/>
+      <c r="J419" s="48"/>
+      <c r="K419" s="48"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="J420" s="46"/>
-      <c r="K420" s="46"/>
+      <c r="J420" s="48"/>
+      <c r="K420" s="48"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="J421" s="46"/>
-      <c r="K421" s="46"/>
+      <c r="J421" s="48"/>
+      <c r="K421" s="48"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="J422" s="46"/>
-      <c r="K422" s="46"/>
+      <c r="J422" s="48"/>
+      <c r="K422" s="48"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="J423" s="46"/>
-      <c r="K423" s="46"/>
+      <c r="J423" s="48"/>
+      <c r="K423" s="48"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="J424" s="46"/>
-      <c r="K424" s="46"/>
+      <c r="J424" s="48"/>
+      <c r="K424" s="48"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="J425" s="46"/>
-      <c r="K425" s="46"/>
+      <c r="J425" s="48"/>
+      <c r="K425" s="48"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="J426" s="46"/>
-      <c r="K426" s="46"/>
+      <c r="J426" s="48"/>
+      <c r="K426" s="48"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="J427" s="46"/>
-      <c r="K427" s="46"/>
+      <c r="J427" s="48"/>
+      <c r="K427" s="48"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="J428" s="46"/>
-      <c r="K428" s="46"/>
+      <c r="J428" s="48"/>
+      <c r="K428" s="48"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="J429" s="46"/>
-      <c r="K429" s="46"/>
+      <c r="J429" s="48"/>
+      <c r="K429" s="48"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="J430" s="46"/>
-      <c r="K430" s="46"/>
+      <c r="J430" s="48"/>
+      <c r="K430" s="48"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="J431" s="46"/>
-      <c r="K431" s="46"/>
+      <c r="J431" s="48"/>
+      <c r="K431" s="48"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="J432" s="46"/>
-      <c r="K432" s="46"/>
+      <c r="J432" s="48"/>
+      <c r="K432" s="48"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="J433" s="46"/>
-      <c r="K433" s="46"/>
+      <c r="J433" s="48"/>
+      <c r="K433" s="48"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="J434" s="46"/>
-      <c r="K434" s="46"/>
+      <c r="J434" s="48"/>
+      <c r="K434" s="48"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="J435" s="46"/>
-      <c r="K435" s="46"/>
+      <c r="J435" s="48"/>
+      <c r="K435" s="48"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="J436" s="46"/>
-      <c r="K436" s="46"/>
+      <c r="J436" s="48"/>
+      <c r="K436" s="48"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="J437" s="46"/>
-      <c r="K437" s="46"/>
+      <c r="J437" s="48"/>
+      <c r="K437" s="48"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="J438" s="46"/>
-      <c r="K438" s="46"/>
+      <c r="J438" s="48"/>
+      <c r="K438" s="48"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="J439" s="46"/>
-      <c r="K439" s="46"/>
+      <c r="J439" s="48"/>
+      <c r="K439" s="48"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="J440" s="46"/>
-      <c r="K440" s="46"/>
+      <c r="J440" s="48"/>
+      <c r="K440" s="48"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="J441" s="46"/>
-      <c r="K441" s="46"/>
+      <c r="J441" s="48"/>
+      <c r="K441" s="48"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="J442" s="46"/>
-      <c r="K442" s="46"/>
+      <c r="J442" s="48"/>
+      <c r="K442" s="48"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="J443" s="46"/>
-      <c r="K443" s="46"/>
+      <c r="J443" s="48"/>
+      <c r="K443" s="48"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="J444" s="46"/>
-      <c r="K444" s="46"/>
+      <c r="J444" s="48"/>
+      <c r="K444" s="48"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="J445" s="46"/>
-      <c r="K445" s="46"/>
+      <c r="J445" s="48"/>
+      <c r="K445" s="48"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="J446" s="46"/>
-      <c r="K446" s="46"/>
+      <c r="J446" s="48"/>
+      <c r="K446" s="48"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="J447" s="46"/>
-      <c r="K447" s="46"/>
+      <c r="J447" s="48"/>
+      <c r="K447" s="48"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="J448" s="46"/>
-      <c r="K448" s="46"/>
+      <c r="J448" s="48"/>
+      <c r="K448" s="48"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="J449" s="46"/>
-      <c r="K449" s="46"/>
+      <c r="J449" s="48"/>
+      <c r="K449" s="48"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="J450" s="46"/>
-      <c r="K450" s="46"/>
+      <c r="J450" s="48"/>
+      <c r="K450" s="48"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="J451" s="46"/>
-      <c r="K451" s="46"/>
+      <c r="J451" s="48"/>
+      <c r="K451" s="48"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="J452" s="46"/>
-      <c r="K452" s="46"/>
+      <c r="J452" s="48"/>
+      <c r="K452" s="48"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="J453" s="46"/>
-      <c r="K453" s="46"/>
+      <c r="J453" s="48"/>
+      <c r="K453" s="48"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="J454" s="46"/>
-      <c r="K454" s="46"/>
+      <c r="J454" s="48"/>
+      <c r="K454" s="48"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="J455" s="46"/>
-      <c r="K455" s="46"/>
+      <c r="J455" s="48"/>
+      <c r="K455" s="48"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="J456" s="46"/>
-      <c r="K456" s="46"/>
+      <c r="J456" s="48"/>
+      <c r="K456" s="48"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="J457" s="46"/>
-      <c r="K457" s="46"/>
+      <c r="J457" s="48"/>
+      <c r="K457" s="48"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="J458" s="46"/>
-      <c r="K458" s="46"/>
+      <c r="J458" s="48"/>
+      <c r="K458" s="48"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="J459" s="46"/>
-      <c r="K459" s="46"/>
+      <c r="J459" s="48"/>
+      <c r="K459" s="48"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="J460" s="46"/>
-      <c r="K460" s="46"/>
+      <c r="J460" s="48"/>
+      <c r="K460" s="48"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="J461" s="46"/>
-      <c r="K461" s="46"/>
+      <c r="J461" s="48"/>
+      <c r="K461" s="48"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="J462" s="46"/>
-      <c r="K462" s="46"/>
+      <c r="J462" s="48"/>
+      <c r="K462" s="48"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="J463" s="46"/>
-      <c r="K463" s="46"/>
+      <c r="J463" s="48"/>
+      <c r="K463" s="48"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="J464" s="46"/>
-      <c r="K464" s="46"/>
+      <c r="J464" s="48"/>
+      <c r="K464" s="48"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="J465" s="46"/>
-      <c r="K465" s="46"/>
+      <c r="J465" s="48"/>
+      <c r="K465" s="48"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="J466" s="46"/>
-      <c r="K466" s="46"/>
+      <c r="J466" s="48"/>
+      <c r="K466" s="48"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="J467" s="46"/>
-      <c r="K467" s="46"/>
+      <c r="J467" s="48"/>
+      <c r="K467" s="48"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="J468" s="46"/>
-      <c r="K468" s="46"/>
+      <c r="J468" s="48"/>
+      <c r="K468" s="48"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="J469" s="46"/>
-      <c r="K469" s="46"/>
+      <c r="J469" s="48"/>
+      <c r="K469" s="48"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="J470" s="46"/>
-      <c r="K470" s="46"/>
+      <c r="J470" s="48"/>
+      <c r="K470" s="48"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="J471" s="46"/>
-      <c r="K471" s="46"/>
+      <c r="J471" s="48"/>
+      <c r="K471" s="48"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="J472" s="46"/>
-      <c r="K472" s="46"/>
+      <c r="J472" s="48"/>
+      <c r="K472" s="48"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="J473" s="46"/>
-      <c r="K473" s="46"/>
+      <c r="J473" s="48"/>
+      <c r="K473" s="48"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="J474" s="46"/>
-      <c r="K474" s="46"/>
+      <c r="J474" s="48"/>
+      <c r="K474" s="48"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="J475" s="46"/>
-      <c r="K475" s="46"/>
+      <c r="J475" s="48"/>
+      <c r="K475" s="48"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="J476" s="46"/>
-      <c r="K476" s="46"/>
+      <c r="J476" s="48"/>
+      <c r="K476" s="48"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="J477" s="46"/>
-      <c r="K477" s="46"/>
+      <c r="J477" s="48"/>
+      <c r="K477" s="48"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="J478" s="46"/>
-      <c r="K478" s="46"/>
+      <c r="J478" s="48"/>
+      <c r="K478" s="48"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="J479" s="46"/>
-      <c r="K479" s="46"/>
+      <c r="J479" s="48"/>
+      <c r="K479" s="48"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="J480" s="46"/>
-      <c r="K480" s="46"/>
+      <c r="J480" s="48"/>
+      <c r="K480" s="48"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="J481" s="46"/>
-      <c r="K481" s="46"/>
+      <c r="J481" s="48"/>
+      <c r="K481" s="48"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="J482" s="46"/>
-      <c r="K482" s="46"/>
+      <c r="J482" s="48"/>
+      <c r="K482" s="48"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="J483" s="46"/>
-      <c r="K483" s="46"/>
+      <c r="J483" s="48"/>
+      <c r="K483" s="48"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="J484" s="46"/>
-      <c r="K484" s="46"/>
+      <c r="J484" s="48"/>
+      <c r="K484" s="48"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="J485" s="46"/>
-      <c r="K485" s="46"/>
+      <c r="J485" s="48"/>
+      <c r="K485" s="48"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="J486" s="46"/>
-      <c r="K486" s="46"/>
+      <c r="J486" s="48"/>
+      <c r="K486" s="48"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="J487" s="46"/>
-      <c r="K487" s="46"/>
+      <c r="J487" s="48"/>
+      <c r="K487" s="48"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="J488" s="46"/>
-      <c r="K488" s="46"/>
+      <c r="J488" s="48"/>
+      <c r="K488" s="48"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="J489" s="46"/>
-      <c r="K489" s="46"/>
+      <c r="J489" s="48"/>
+      <c r="K489" s="48"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="J490" s="46"/>
-      <c r="K490" s="46"/>
+      <c r="J490" s="48"/>
+      <c r="K490" s="48"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="J491" s="46"/>
-      <c r="K491" s="46"/>
+      <c r="J491" s="48"/>
+      <c r="K491" s="48"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="J492" s="46"/>
-      <c r="K492" s="46"/>
+      <c r="J492" s="48"/>
+      <c r="K492" s="48"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="J493" s="46"/>
-      <c r="K493" s="46"/>
+      <c r="J493" s="48"/>
+      <c r="K493" s="48"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="J494" s="46"/>
-      <c r="K494" s="46"/>
+      <c r="J494" s="48"/>
+      <c r="K494" s="48"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="J495" s="46"/>
-      <c r="K495" s="46"/>
+      <c r="J495" s="48"/>
+      <c r="K495" s="48"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="J496" s="46"/>
-      <c r="K496" s="46"/>
+      <c r="J496" s="48"/>
+      <c r="K496" s="48"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="J497" s="46"/>
-      <c r="K497" s="46"/>
+      <c r="J497" s="48"/>
+      <c r="K497" s="48"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="J498" s="46"/>
-      <c r="K498" s="46"/>
+      <c r="J498" s="48"/>
+      <c r="K498" s="48"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="J499" s="46"/>
-      <c r="K499" s="46"/>
+      <c r="J499" s="48"/>
+      <c r="K499" s="48"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="J500" s="46"/>
-      <c r="K500" s="46"/>
+      <c r="J500" s="48"/>
+      <c r="K500" s="48"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="J501" s="46"/>
-      <c r="K501" s="46"/>
+      <c r="J501" s="48"/>
+      <c r="K501" s="48"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="J502" s="46"/>
-      <c r="K502" s="46"/>
+      <c r="J502" s="48"/>
+      <c r="K502" s="48"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="J503" s="46"/>
-      <c r="K503" s="46"/>
+      <c r="J503" s="48"/>
+      <c r="K503" s="48"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="J504" s="46"/>
-      <c r="K504" s="46"/>
+      <c r="J504" s="48"/>
+      <c r="K504" s="48"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="J505" s="46"/>
-      <c r="K505" s="46"/>
+      <c r="J505" s="48"/>
+      <c r="K505" s="48"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="J506" s="46"/>
-      <c r="K506" s="46"/>
+      <c r="J506" s="48"/>
+      <c r="K506" s="48"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="J507" s="46"/>
-      <c r="K507" s="46"/>
+      <c r="J507" s="48"/>
+      <c r="K507" s="48"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="J508" s="46"/>
-      <c r="K508" s="46"/>
+      <c r="J508" s="48"/>
+      <c r="K508" s="48"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="J509" s="46"/>
-      <c r="K509" s="46"/>
+      <c r="J509" s="48"/>
+      <c r="K509" s="48"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="J510" s="46"/>
-      <c r="K510" s="46"/>
+      <c r="J510" s="48"/>
+      <c r="K510" s="48"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="J511" s="46"/>
-      <c r="K511" s="46"/>
+      <c r="J511" s="48"/>
+      <c r="K511" s="48"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="J512" s="46"/>
-      <c r="K512" s="46"/>
+      <c r="J512" s="48"/>
+      <c r="K512" s="48"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="J513" s="46"/>
-      <c r="K513" s="46"/>
+      <c r="J513" s="48"/>
+      <c r="K513" s="48"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="J514" s="46"/>
-      <c r="K514" s="46"/>
+      <c r="J514" s="48"/>
+      <c r="K514" s="48"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="J515" s="46"/>
-      <c r="K515" s="46"/>
+      <c r="J515" s="48"/>
+      <c r="K515" s="48"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="J516" s="46"/>
-      <c r="K516" s="46"/>
+      <c r="J516" s="48"/>
+      <c r="K516" s="48"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="J517" s="46"/>
-      <c r="K517" s="46"/>
+      <c r="J517" s="48"/>
+      <c r="K517" s="48"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="J518" s="46"/>
-      <c r="K518" s="46"/>
+      <c r="J518" s="48"/>
+      <c r="K518" s="48"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="J519" s="46"/>
-      <c r="K519" s="46"/>
+      <c r="J519" s="48"/>
+      <c r="K519" s="48"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="J520" s="46"/>
-      <c r="K520" s="46"/>
+      <c r="J520" s="48"/>
+      <c r="K520" s="48"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="J521" s="46"/>
-      <c r="K521" s="46"/>
+      <c r="J521" s="48"/>
+      <c r="K521" s="48"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="J522" s="46"/>
-      <c r="K522" s="46"/>
+      <c r="J522" s="48"/>
+      <c r="K522" s="48"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="J523" s="46"/>
-      <c r="K523" s="46"/>
+      <c r="J523" s="48"/>
+      <c r="K523" s="48"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="J524" s="46"/>
-      <c r="K524" s="46"/>
+      <c r="J524" s="48"/>
+      <c r="K524" s="48"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="J525" s="46"/>
-      <c r="K525" s="46"/>
+      <c r="J525" s="48"/>
+      <c r="K525" s="48"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="J526" s="46"/>
-      <c r="K526" s="46"/>
+      <c r="J526" s="48"/>
+      <c r="K526" s="48"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="J527" s="46"/>
-      <c r="K527" s="46"/>
+      <c r="J527" s="48"/>
+      <c r="K527" s="48"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="J528" s="46"/>
-      <c r="K528" s="46"/>
+      <c r="J528" s="48"/>
+      <c r="K528" s="48"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="J529" s="46"/>
-      <c r="K529" s="46"/>
+      <c r="J529" s="48"/>
+      <c r="K529" s="48"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="J530" s="46"/>
-      <c r="K530" s="46"/>
+      <c r="J530" s="48"/>
+      <c r="K530" s="48"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="J531" s="46"/>
-      <c r="K531" s="46"/>
+      <c r="J531" s="48"/>
+      <c r="K531" s="48"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="J532" s="46"/>
-      <c r="K532" s="46"/>
+      <c r="J532" s="48"/>
+      <c r="K532" s="48"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="J533" s="46"/>
-      <c r="K533" s="46"/>
+      <c r="J533" s="48"/>
+      <c r="K533" s="48"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="J534" s="46"/>
-      <c r="K534" s="46"/>
+      <c r="J534" s="48"/>
+      <c r="K534" s="48"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="J535" s="46"/>
-      <c r="K535" s="46"/>
+      <c r="J535" s="48"/>
+      <c r="K535" s="48"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="J536" s="46"/>
-      <c r="K536" s="46"/>
+      <c r="J536" s="48"/>
+      <c r="K536" s="48"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="J537" s="46"/>
-      <c r="K537" s="46"/>
+      <c r="J537" s="48"/>
+      <c r="K537" s="48"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="J538" s="46"/>
-      <c r="K538" s="46"/>
+      <c r="J538" s="48"/>
+      <c r="K538" s="48"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="J539" s="46"/>
-      <c r="K539" s="46"/>
+      <c r="J539" s="48"/>
+      <c r="K539" s="48"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="J540" s="46"/>
-      <c r="K540" s="46"/>
+      <c r="J540" s="48"/>
+      <c r="K540" s="48"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="J541" s="46"/>
-      <c r="K541" s="46"/>
+      <c r="J541" s="48"/>
+      <c r="K541" s="48"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="J542" s="46"/>
-      <c r="K542" s="46"/>
+      <c r="J542" s="48"/>
+      <c r="K542" s="48"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="J543" s="46"/>
-      <c r="K543" s="46"/>
+      <c r="J543" s="48"/>
+      <c r="K543" s="48"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="J544" s="46"/>
-      <c r="K544" s="46"/>
+      <c r="J544" s="48"/>
+      <c r="K544" s="48"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="J545" s="46"/>
-      <c r="K545" s="46"/>
+      <c r="J545" s="48"/>
+      <c r="K545" s="48"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="J546" s="46"/>
-      <c r="K546" s="46"/>
+      <c r="J546" s="48"/>
+      <c r="K546" s="48"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="J547" s="46"/>
-      <c r="K547" s="46"/>
+      <c r="J547" s="48"/>
+      <c r="K547" s="48"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="J548" s="46"/>
-      <c r="K548" s="46"/>
+      <c r="J548" s="48"/>
+      <c r="K548" s="48"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="J549" s="46"/>
-      <c r="K549" s="46"/>
+      <c r="J549" s="48"/>
+      <c r="K549" s="48"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="J550" s="46"/>
-      <c r="K550" s="46"/>
+      <c r="J550" s="48"/>
+      <c r="K550" s="48"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="J551" s="46"/>
-      <c r="K551" s="46"/>
+      <c r="J551" s="48"/>
+      <c r="K551" s="48"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="J552" s="46"/>
-      <c r="K552" s="46"/>
+      <c r="J552" s="48"/>
+      <c r="K552" s="48"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="J553" s="46"/>
-      <c r="K553" s="46"/>
+      <c r="J553" s="48"/>
+      <c r="K553" s="48"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="J554" s="46"/>
-      <c r="K554" s="46"/>
+      <c r="J554" s="48"/>
+      <c r="K554" s="48"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="J555" s="46"/>
-      <c r="K555" s="46"/>
+      <c r="J555" s="48"/>
+      <c r="K555" s="48"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="J556" s="46"/>
-      <c r="K556" s="46"/>
+      <c r="J556" s="48"/>
+      <c r="K556" s="48"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="J557" s="46"/>
-      <c r="K557" s="46"/>
+      <c r="J557" s="48"/>
+      <c r="K557" s="48"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="J558" s="46"/>
-      <c r="K558" s="46"/>
+      <c r="J558" s="48"/>
+      <c r="K558" s="48"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="J559" s="46"/>
-      <c r="K559" s="46"/>
+      <c r="J559" s="48"/>
+      <c r="K559" s="48"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="J560" s="46"/>
-      <c r="K560" s="46"/>
+      <c r="J560" s="48"/>
+      <c r="K560" s="48"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="J561" s="46"/>
-      <c r="K561" s="46"/>
+      <c r="J561" s="48"/>
+      <c r="K561" s="48"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="J562" s="46"/>
-      <c r="K562" s="46"/>
+      <c r="J562" s="48"/>
+      <c r="K562" s="48"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="J563" s="46"/>
-      <c r="K563" s="46"/>
+      <c r="J563" s="48"/>
+      <c r="K563" s="48"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="J564" s="46"/>
-      <c r="K564" s="46"/>
+      <c r="J564" s="48"/>
+      <c r="K564" s="48"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="J565" s="46"/>
-      <c r="K565" s="46"/>
+      <c r="J565" s="48"/>
+      <c r="K565" s="48"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="J566" s="46"/>
-      <c r="K566" s="46"/>
+      <c r="J566" s="48"/>
+      <c r="K566" s="48"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="J567" s="46"/>
-      <c r="K567" s="46"/>
+      <c r="J567" s="48"/>
+      <c r="K567" s="48"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="J568" s="46"/>
-      <c r="K568" s="46"/>
+      <c r="J568" s="48"/>
+      <c r="K568" s="48"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="J569" s="46"/>
-      <c r="K569" s="46"/>
+      <c r="J569" s="48"/>
+      <c r="K569" s="48"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="J570" s="46"/>
-      <c r="K570" s="46"/>
+      <c r="J570" s="48"/>
+      <c r="K570" s="48"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="J571" s="46"/>
-      <c r="K571" s="46"/>
+      <c r="J571" s="48"/>
+      <c r="K571" s="48"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="J572" s="46"/>
-      <c r="K572" s="46"/>
+      <c r="J572" s="48"/>
+      <c r="K572" s="48"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="J573" s="46"/>
-      <c r="K573" s="46"/>
+      <c r="J573" s="48"/>
+      <c r="K573" s="48"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="J574" s="46"/>
-      <c r="K574" s="46"/>
+      <c r="J574" s="48"/>
+      <c r="K574" s="48"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="J575" s="46"/>
-      <c r="K575" s="46"/>
+      <c r="J575" s="48"/>
+      <c r="K575" s="48"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="J576" s="46"/>
-      <c r="K576" s="46"/>
+      <c r="J576" s="48"/>
+      <c r="K576" s="48"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="J577" s="46"/>
-      <c r="K577" s="46"/>
+      <c r="J577" s="48"/>
+      <c r="K577" s="48"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="J578" s="46"/>
-      <c r="K578" s="46"/>
+      <c r="J578" s="48"/>
+      <c r="K578" s="48"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="J579" s="46"/>
-      <c r="K579" s="46"/>
+      <c r="J579" s="48"/>
+      <c r="K579" s="48"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="J580" s="46"/>
-      <c r="K580" s="46"/>
+      <c r="J580" s="48"/>
+      <c r="K580" s="48"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="J581" s="46"/>
-      <c r="K581" s="46"/>
+      <c r="J581" s="48"/>
+      <c r="K581" s="48"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="J582" s="46"/>
-      <c r="K582" s="46"/>
+      <c r="J582" s="48"/>
+      <c r="K582" s="48"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="J583" s="46"/>
-      <c r="K583" s="46"/>
+      <c r="J583" s="48"/>
+      <c r="K583" s="48"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="J584" s="46"/>
-      <c r="K584" s="46"/>
+      <c r="J584" s="48"/>
+      <c r="K584" s="48"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="J585" s="46"/>
-      <c r="K585" s="46"/>
+      <c r="J585" s="48"/>
+      <c r="K585" s="48"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="J586" s="46"/>
-      <c r="K586" s="46"/>
+      <c r="J586" s="48"/>
+      <c r="K586" s="48"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="J587" s="46"/>
-      <c r="K587" s="46"/>
+      <c r="J587" s="48"/>
+      <c r="K587" s="48"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="J588" s="46"/>
-      <c r="K588" s="46"/>
+      <c r="J588" s="48"/>
+      <c r="K588" s="48"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="J589" s="46"/>
-      <c r="K589" s="46"/>
+      <c r="J589" s="48"/>
+      <c r="K589" s="48"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="J590" s="46"/>
-      <c r="K590" s="46"/>
+      <c r="J590" s="48"/>
+      <c r="K590" s="48"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="J591" s="46"/>
-      <c r="K591" s="46"/>
+      <c r="J591" s="48"/>
+      <c r="K591" s="48"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="J592" s="46"/>
-      <c r="K592" s="46"/>
+      <c r="J592" s="48"/>
+      <c r="K592" s="48"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="J593" s="46"/>
-      <c r="K593" s="46"/>
+      <c r="J593" s="48"/>
+      <c r="K593" s="48"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="J594" s="46"/>
-      <c r="K594" s="46"/>
+      <c r="J594" s="48"/>
+      <c r="K594" s="48"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="J595" s="46"/>
-      <c r="K595" s="46"/>
+      <c r="J595" s="48"/>
+      <c r="K595" s="48"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="J596" s="46"/>
-      <c r="K596" s="46"/>
+      <c r="J596" s="48"/>
+      <c r="K596" s="48"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="J597" s="46"/>
-      <c r="K597" s="46"/>
+      <c r="J597" s="48"/>
+      <c r="K597" s="48"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="J598" s="46"/>
-      <c r="K598" s="46"/>
+      <c r="J598" s="48"/>
+      <c r="K598" s="48"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="J599" s="46"/>
-      <c r="K599" s="46"/>
+      <c r="J599" s="48"/>
+      <c r="K599" s="48"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="J600" s="46"/>
-      <c r="K600" s="46"/>
+      <c r="J600" s="48"/>
+      <c r="K600" s="48"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="J601" s="46"/>
-      <c r="K601" s="46"/>
+      <c r="J601" s="48"/>
+      <c r="K601" s="48"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="J602" s="46"/>
-      <c r="K602" s="46"/>
+      <c r="J602" s="48"/>
+      <c r="K602" s="48"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="J603" s="46"/>
-      <c r="K603" s="46"/>
+      <c r="J603" s="48"/>
+      <c r="K603" s="48"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="J604" s="46"/>
-      <c r="K604" s="46"/>
+      <c r="J604" s="48"/>
+      <c r="K604" s="48"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="J605" s="46"/>
-      <c r="K605" s="46"/>
+      <c r="J605" s="48"/>
+      <c r="K605" s="48"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="J606" s="46"/>
-      <c r="K606" s="46"/>
+      <c r="J606" s="48"/>
+      <c r="K606" s="48"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="J607" s="46"/>
-      <c r="K607" s="46"/>
+      <c r="J607" s="48"/>
+      <c r="K607" s="48"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="J608" s="46"/>
-      <c r="K608" s="46"/>
+      <c r="J608" s="48"/>
+      <c r="K608" s="48"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="J609" s="46"/>
-      <c r="K609" s="46"/>
+      <c r="J609" s="48"/>
+      <c r="K609" s="48"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="J610" s="46"/>
-      <c r="K610" s="46"/>
+      <c r="J610" s="48"/>
+      <c r="K610" s="48"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="J611" s="46"/>
-      <c r="K611" s="46"/>
+      <c r="J611" s="48"/>
+      <c r="K611" s="48"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="J612" s="46"/>
-      <c r="K612" s="46"/>
+      <c r="J612" s="48"/>
+      <c r="K612" s="48"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="J613" s="46"/>
-      <c r="K613" s="46"/>
+      <c r="J613" s="48"/>
+      <c r="K613" s="48"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="J614" s="46"/>
-      <c r="K614" s="46"/>
+      <c r="J614" s="48"/>
+      <c r="K614" s="48"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="J615" s="46"/>
-      <c r="K615" s="46"/>
+      <c r="J615" s="48"/>
+      <c r="K615" s="48"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="J616" s="46"/>
-      <c r="K616" s="46"/>
+      <c r="J616" s="48"/>
+      <c r="K616" s="48"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="J617" s="46"/>
-      <c r="K617" s="46"/>
+      <c r="J617" s="48"/>
+      <c r="K617" s="48"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="J618" s="46"/>
-      <c r="K618" s="46"/>
+      <c r="J618" s="48"/>
+      <c r="K618" s="48"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="J619" s="46"/>
-      <c r="K619" s="46"/>
+      <c r="J619" s="48"/>
+      <c r="K619" s="48"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="J620" s="46"/>
-      <c r="K620" s="46"/>
+      <c r="J620" s="48"/>
+      <c r="K620" s="48"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="J621" s="46"/>
-      <c r="K621" s="46"/>
+      <c r="J621" s="48"/>
+      <c r="K621" s="48"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="J622" s="46"/>
-      <c r="K622" s="46"/>
+      <c r="J622" s="48"/>
+      <c r="K622" s="48"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="J623" s="46"/>
-      <c r="K623" s="46"/>
+      <c r="J623" s="48"/>
+      <c r="K623" s="48"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="J624" s="46"/>
-      <c r="K624" s="46"/>
+      <c r="J624" s="48"/>
+      <c r="K624" s="48"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="J625" s="46"/>
-      <c r="K625" s="46"/>
+      <c r="J625" s="48"/>
+      <c r="K625" s="48"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="J626" s="46"/>
-      <c r="K626" s="46"/>
+      <c r="J626" s="48"/>
+      <c r="K626" s="48"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="J627" s="46"/>
-      <c r="K627" s="46"/>
+      <c r="J627" s="48"/>
+      <c r="K627" s="48"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="J628" s="46"/>
-      <c r="K628" s="46"/>
+      <c r="J628" s="48"/>
+      <c r="K628" s="48"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="J629" s="46"/>
-      <c r="K629" s="46"/>
+      <c r="J629" s="48"/>
+      <c r="K629" s="48"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="J630" s="46"/>
-      <c r="K630" s="46"/>
+      <c r="J630" s="48"/>
+      <c r="K630" s="48"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="J631" s="46"/>
-      <c r="K631" s="46"/>
+      <c r="J631" s="48"/>
+      <c r="K631" s="48"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="J632" s="46"/>
-      <c r="K632" s="46"/>
+      <c r="J632" s="48"/>
+      <c r="K632" s="48"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="J633" s="46"/>
-      <c r="K633" s="46"/>
+      <c r="J633" s="48"/>
+      <c r="K633" s="48"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="J634" s="46"/>
-      <c r="K634" s="46"/>
+      <c r="J634" s="48"/>
+      <c r="K634" s="48"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="J635" s="46"/>
-      <c r="K635" s="46"/>
+      <c r="J635" s="48"/>
+      <c r="K635" s="48"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="J636" s="46"/>
-      <c r="K636" s="46"/>
+      <c r="J636" s="48"/>
+      <c r="K636" s="48"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="J637" s="46"/>
-      <c r="K637" s="46"/>
+      <c r="J637" s="48"/>
+      <c r="K637" s="48"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="J638" s="46"/>
-      <c r="K638" s="46"/>
+      <c r="J638" s="48"/>
+      <c r="K638" s="48"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="J639" s="46"/>
-      <c r="K639" s="46"/>
+      <c r="J639" s="48"/>
+      <c r="K639" s="48"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="J640" s="46"/>
-      <c r="K640" s="46"/>
+      <c r="J640" s="48"/>
+      <c r="K640" s="48"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="J641" s="46"/>
-      <c r="K641" s="46"/>
+      <c r="J641" s="48"/>
+      <c r="K641" s="48"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="J642" s="46"/>
-      <c r="K642" s="46"/>
+      <c r="J642" s="48"/>
+      <c r="K642" s="48"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="J643" s="46"/>
-      <c r="K643" s="46"/>
+      <c r="J643" s="48"/>
+      <c r="K643" s="48"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="J644" s="46"/>
-      <c r="K644" s="46"/>
+      <c r="J644" s="48"/>
+      <c r="K644" s="48"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="J645" s="46"/>
-      <c r="K645" s="46"/>
+      <c r="J645" s="48"/>
+      <c r="K645" s="48"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="J646" s="46"/>
-      <c r="K646" s="46"/>
+      <c r="J646" s="48"/>
+      <c r="K646" s="48"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="J647" s="46"/>
-      <c r="K647" s="46"/>
+      <c r="J647" s="48"/>
+      <c r="K647" s="48"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="J648" s="46"/>
-      <c r="K648" s="46"/>
+      <c r="J648" s="48"/>
+      <c r="K648" s="48"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="J649" s="46"/>
-      <c r="K649" s="46"/>
+      <c r="J649" s="48"/>
+      <c r="K649" s="48"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="J650" s="46"/>
-      <c r="K650" s="46"/>
+      <c r="J650" s="48"/>
+      <c r="K650" s="48"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="J651" s="46"/>
-      <c r="K651" s="46"/>
+      <c r="J651" s="48"/>
+      <c r="K651" s="48"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="J652" s="46"/>
-      <c r="K652" s="46"/>
+      <c r="J652" s="48"/>
+      <c r="K652" s="48"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="J653" s="46"/>
-      <c r="K653" s="46"/>
+      <c r="J653" s="48"/>
+      <c r="K653" s="48"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="J654" s="46"/>
-      <c r="K654" s="46"/>
+      <c r="J654" s="48"/>
+      <c r="K654" s="48"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="J655" s="46"/>
-      <c r="K655" s="46"/>
+      <c r="J655" s="48"/>
+      <c r="K655" s="48"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="J656" s="46"/>
-      <c r="K656" s="46"/>
+      <c r="J656" s="48"/>
+      <c r="K656" s="48"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="J657" s="46"/>
-      <c r="K657" s="46"/>
+      <c r="J657" s="48"/>
+      <c r="K657" s="48"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="J658" s="46"/>
-      <c r="K658" s="46"/>
+      <c r="J658" s="48"/>
+      <c r="K658" s="48"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="J659" s="46"/>
-      <c r="K659" s="46"/>
+      <c r="J659" s="48"/>
+      <c r="K659" s="48"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="J660" s="46"/>
-      <c r="K660" s="46"/>
+      <c r="J660" s="48"/>
+      <c r="K660" s="48"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="J661" s="46"/>
-      <c r="K661" s="46"/>
+      <c r="J661" s="48"/>
+      <c r="K661" s="48"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="J662" s="46"/>
-      <c r="K662" s="46"/>
+      <c r="J662" s="48"/>
+      <c r="K662" s="48"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="J663" s="46"/>
-      <c r="K663" s="46"/>
+      <c r="J663" s="48"/>
+      <c r="K663" s="48"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="J664" s="46"/>
-      <c r="K664" s="46"/>
+      <c r="J664" s="48"/>
+      <c r="K664" s="48"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="J665" s="46"/>
-      <c r="K665" s="46"/>
+      <c r="J665" s="48"/>
+      <c r="K665" s="48"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="J666" s="46"/>
-      <c r="K666" s="46"/>
+      <c r="J666" s="48"/>
+      <c r="K666" s="48"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="J667" s="46"/>
-      <c r="K667" s="46"/>
+      <c r="J667" s="48"/>
+      <c r="K667" s="48"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="J668" s="46"/>
-      <c r="K668" s="46"/>
+      <c r="J668" s="48"/>
+      <c r="K668" s="48"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="J669" s="46"/>
-      <c r="K669" s="46"/>
+      <c r="J669" s="48"/>
+      <c r="K669" s="48"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="J670" s="46"/>
-      <c r="K670" s="46"/>
+      <c r="J670" s="48"/>
+      <c r="K670" s="48"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="J671" s="46"/>
-      <c r="K671" s="46"/>
+      <c r="J671" s="48"/>
+      <c r="K671" s="48"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="J672" s="46"/>
-      <c r="K672" s="46"/>
+      <c r="J672" s="48"/>
+      <c r="K672" s="48"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="J673" s="46"/>
-      <c r="K673" s="46"/>
+      <c r="J673" s="48"/>
+      <c r="K673" s="48"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="J674" s="46"/>
-      <c r="K674" s="46"/>
+      <c r="J674" s="48"/>
+      <c r="K674" s="48"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="J675" s="46"/>
-      <c r="K675" s="46"/>
+      <c r="J675" s="48"/>
+      <c r="K675" s="48"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="J676" s="46"/>
-      <c r="K676" s="46"/>
+      <c r="J676" s="48"/>
+      <c r="K676" s="48"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="J677" s="46"/>
-      <c r="K677" s="46"/>
+      <c r="J677" s="48"/>
+      <c r="K677" s="48"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="J678" s="46"/>
-      <c r="K678" s="46"/>
+      <c r="J678" s="48"/>
+      <c r="K678" s="48"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="J679" s="46"/>
-      <c r="K679" s="46"/>
+      <c r="J679" s="48"/>
+      <c r="K679" s="48"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="J680" s="46"/>
-      <c r="K680" s="46"/>
+      <c r="J680" s="48"/>
+      <c r="K680" s="48"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="J681" s="46"/>
-      <c r="K681" s="46"/>
+      <c r="J681" s="48"/>
+      <c r="K681" s="48"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="J682" s="46"/>
-      <c r="K682" s="46"/>
+      <c r="J682" s="48"/>
+      <c r="K682" s="48"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="J683" s="46"/>
-      <c r="K683" s="46"/>
+      <c r="J683" s="48"/>
+      <c r="K683" s="48"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="J684" s="46"/>
-      <c r="K684" s="46"/>
+      <c r="J684" s="48"/>
+      <c r="K684" s="48"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="J685" s="46"/>
-      <c r="K685" s="46"/>
+      <c r="J685" s="48"/>
+      <c r="K685" s="48"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="J686" s="46"/>
-      <c r="K686" s="46"/>
+      <c r="J686" s="48"/>
+      <c r="K686" s="48"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="J687" s="46"/>
-      <c r="K687" s="46"/>
+      <c r="J687" s="48"/>
+      <c r="K687" s="48"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="J688" s="46"/>
-      <c r="K688" s="46"/>
+      <c r="J688" s="48"/>
+      <c r="K688" s="48"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="J689" s="46"/>
-      <c r="K689" s="46"/>
+      <c r="J689" s="48"/>
+      <c r="K689" s="48"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="J690" s="46"/>
-      <c r="K690" s="46"/>
+      <c r="J690" s="48"/>
+      <c r="K690" s="48"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="J691" s="46"/>
-      <c r="K691" s="46"/>
+      <c r="J691" s="48"/>
+      <c r="K691" s="48"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="J692" s="46"/>
-      <c r="K692" s="46"/>
+      <c r="J692" s="48"/>
+      <c r="K692" s="48"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="J693" s="46"/>
-      <c r="K693" s="46"/>
+      <c r="J693" s="48"/>
+      <c r="K693" s="48"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="J694" s="46"/>
-      <c r="K694" s="46"/>
+      <c r="J694" s="48"/>
+      <c r="K694" s="48"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="J695" s="46"/>
-      <c r="K695" s="46"/>
+      <c r="J695" s="48"/>
+      <c r="K695" s="48"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="J696" s="46"/>
-      <c r="K696" s="46"/>
+      <c r="J696" s="48"/>
+      <c r="K696" s="48"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="J697" s="46"/>
-      <c r="K697" s="46"/>
+      <c r="J697" s="48"/>
+      <c r="K697" s="48"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="J698" s="46"/>
-      <c r="K698" s="46"/>
+      <c r="J698" s="48"/>
+      <c r="K698" s="48"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="J699" s="46"/>
-      <c r="K699" s="46"/>
+      <c r="J699" s="48"/>
+      <c r="K699" s="48"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="J700" s="46"/>
-      <c r="K700" s="46"/>
+      <c r="J700" s="48"/>
+      <c r="K700" s="48"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="J701" s="46"/>
-      <c r="K701" s="46"/>
+      <c r="J701" s="48"/>
+      <c r="K701" s="48"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="J702" s="46"/>
-      <c r="K702" s="46"/>
+      <c r="J702" s="48"/>
+      <c r="K702" s="48"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="J703" s="46"/>
-      <c r="K703" s="46"/>
+      <c r="J703" s="48"/>
+      <c r="K703" s="48"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="J704" s="46"/>
-      <c r="K704" s="46"/>
+      <c r="J704" s="48"/>
+      <c r="K704" s="48"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="J705" s="46"/>
-      <c r="K705" s="46"/>
+      <c r="J705" s="48"/>
+      <c r="K705" s="48"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="J706" s="46"/>
-      <c r="K706" s="46"/>
+      <c r="J706" s="48"/>
+      <c r="K706" s="48"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="J707" s="46"/>
-      <c r="K707" s="46"/>
+      <c r="J707" s="48"/>
+      <c r="K707" s="48"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="J708" s="46"/>
-      <c r="K708" s="46"/>
+      <c r="J708" s="48"/>
+      <c r="K708" s="48"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="J709" s="46"/>
-      <c r="K709" s="46"/>
+      <c r="J709" s="48"/>
+      <c r="K709" s="48"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="J710" s="46"/>
-      <c r="K710" s="46"/>
+      <c r="J710" s="48"/>
+      <c r="K710" s="48"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="J711" s="46"/>
-      <c r="K711" s="46"/>
+      <c r="J711" s="48"/>
+      <c r="K711" s="48"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="J712" s="46"/>
-      <c r="K712" s="46"/>
+      <c r="J712" s="48"/>
+      <c r="K712" s="48"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="J713" s="46"/>
-      <c r="K713" s="46"/>
+      <c r="J713" s="48"/>
+      <c r="K713" s="48"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="J714" s="46"/>
-      <c r="K714" s="46"/>
+      <c r="J714" s="48"/>
+      <c r="K714" s="48"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="J715" s="46"/>
-      <c r="K715" s="46"/>
+      <c r="J715" s="48"/>
+      <c r="K715" s="48"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="J716" s="46"/>
-      <c r="K716" s="46"/>
+      <c r="J716" s="48"/>
+      <c r="K716" s="48"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="J717" s="46"/>
-      <c r="K717" s="46"/>
+      <c r="J717" s="48"/>
+      <c r="K717" s="48"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="J718" s="46"/>
-      <c r="K718" s="46"/>
+      <c r="J718" s="48"/>
+      <c r="K718" s="48"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="J719" s="46"/>
-      <c r="K719" s="46"/>
+      <c r="J719" s="48"/>
+      <c r="K719" s="48"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="J720" s="46"/>
-      <c r="K720" s="46"/>
+      <c r="J720" s="48"/>
+      <c r="K720" s="48"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="J721" s="46"/>
-      <c r="K721" s="46"/>
+      <c r="J721" s="48"/>
+      <c r="K721" s="48"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="J722" s="46"/>
-      <c r="K722" s="46"/>
+      <c r="J722" s="48"/>
+      <c r="K722" s="48"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="J723" s="46"/>
-      <c r="K723" s="46"/>
+      <c r="J723" s="48"/>
+      <c r="K723" s="48"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="J724" s="46"/>
-      <c r="K724" s="46"/>
+      <c r="J724" s="48"/>
+      <c r="K724" s="48"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="J725" s="46"/>
-      <c r="K725" s="46"/>
+      <c r="J725" s="48"/>
+      <c r="K725" s="48"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="J726" s="46"/>
-      <c r="K726" s="46"/>
+      <c r="J726" s="48"/>
+      <c r="K726" s="48"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="J727" s="46"/>
-      <c r="K727" s="46"/>
+      <c r="J727" s="48"/>
+      <c r="K727" s="48"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="J728" s="46"/>
-      <c r="K728" s="46"/>
+      <c r="J728" s="48"/>
+      <c r="K728" s="48"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="J729" s="46"/>
-      <c r="K729" s="46"/>
+      <c r="J729" s="48"/>
+      <c r="K729" s="48"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="J730" s="46"/>
-      <c r="K730" s="46"/>
+      <c r="J730" s="48"/>
+      <c r="K730" s="48"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="J731" s="46"/>
-      <c r="K731" s="46"/>
+      <c r="J731" s="48"/>
+      <c r="K731" s="48"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="J732" s="46"/>
-      <c r="K732" s="46"/>
+      <c r="J732" s="48"/>
+      <c r="K732" s="48"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="J733" s="46"/>
-      <c r="K733" s="46"/>
+      <c r="J733" s="48"/>
+      <c r="K733" s="48"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="J734" s="46"/>
-      <c r="K734" s="46"/>
+      <c r="J734" s="48"/>
+      <c r="K734" s="48"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="J735" s="46"/>
-      <c r="K735" s="46"/>
+      <c r="J735" s="48"/>
+      <c r="K735" s="48"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="J736" s="46"/>
-      <c r="K736" s="46"/>
+      <c r="J736" s="48"/>
+      <c r="K736" s="48"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="J737" s="46"/>
-      <c r="K737" s="46"/>
+      <c r="J737" s="48"/>
+      <c r="K737" s="48"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="J738" s="46"/>
-      <c r="K738" s="46"/>
+      <c r="J738" s="48"/>
+      <c r="K738" s="48"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="J739" s="46"/>
-      <c r="K739" s="46"/>
+      <c r="J739" s="48"/>
+      <c r="K739" s="48"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="J740" s="46"/>
-      <c r="K740" s="46"/>
+      <c r="J740" s="48"/>
+      <c r="K740" s="48"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="J741" s="46"/>
-      <c r="K741" s="46"/>
+      <c r="J741" s="48"/>
+      <c r="K741" s="48"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="J742" s="46"/>
-      <c r="K742" s="46"/>
+      <c r="J742" s="48"/>
+      <c r="K742" s="48"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="J743" s="46"/>
-      <c r="K743" s="46"/>
+      <c r="J743" s="48"/>
+      <c r="K743" s="48"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="J744" s="46"/>
-      <c r="K744" s="46"/>
+      <c r="J744" s="48"/>
+      <c r="K744" s="48"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="J745" s="46"/>
-      <c r="K745" s="46"/>
+      <c r="J745" s="48"/>
+      <c r="K745" s="48"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="J746" s="46"/>
-      <c r="K746" s="46"/>
+      <c r="J746" s="48"/>
+      <c r="K746" s="48"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="J747" s="46"/>
-      <c r="K747" s="46"/>
+      <c r="J747" s="48"/>
+      <c r="K747" s="48"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="J748" s="46"/>
-      <c r="K748" s="46"/>
+      <c r="J748" s="48"/>
+      <c r="K748" s="48"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="J749" s="46"/>
-      <c r="K749" s="46"/>
+      <c r="J749" s="48"/>
+      <c r="K749" s="48"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="J750" s="46"/>
-      <c r="K750" s="46"/>
+      <c r="J750" s="48"/>
+      <c r="K750" s="48"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="J751" s="46"/>
-      <c r="K751" s="46"/>
+      <c r="J751" s="48"/>
+      <c r="K751" s="48"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="J752" s="46"/>
-      <c r="K752" s="46"/>
+      <c r="J752" s="48"/>
+      <c r="K752" s="48"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="J753" s="46"/>
-      <c r="K753" s="46"/>
+      <c r="J753" s="48"/>
+      <c r="K753" s="48"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="J754" s="46"/>
-      <c r="K754" s="46"/>
+      <c r="J754" s="48"/>
+      <c r="K754" s="48"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="J755" s="46"/>
-      <c r="K755" s="46"/>
+      <c r="J755" s="48"/>
+      <c r="K755" s="48"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="J756" s="46"/>
-      <c r="K756" s="46"/>
+      <c r="J756" s="48"/>
+      <c r="K756" s="48"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="J757" s="46"/>
-      <c r="K757" s="46"/>
+      <c r="J757" s="48"/>
+      <c r="K757" s="48"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="J758" s="46"/>
-      <c r="K758" s="46"/>
+      <c r="J758" s="48"/>
+      <c r="K758" s="48"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="J759" s="46"/>
-      <c r="K759" s="46"/>
+      <c r="J759" s="48"/>
+      <c r="K759" s="48"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="J760" s="46"/>
-      <c r="K760" s="46"/>
+      <c r="J760" s="48"/>
+      <c r="K760" s="48"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="J761" s="46"/>
-      <c r="K761" s="46"/>
+      <c r="J761" s="48"/>
+      <c r="K761" s="48"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="J762" s="46"/>
-      <c r="K762" s="46"/>
+      <c r="J762" s="48"/>
+      <c r="K762" s="48"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="J763" s="46"/>
-      <c r="K763" s="46"/>
+      <c r="J763" s="48"/>
+      <c r="K763" s="48"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="J764" s="46"/>
-      <c r="K764" s="46"/>
+      <c r="J764" s="48"/>
+      <c r="K764" s="48"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="J765" s="46"/>
-      <c r="K765" s="46"/>
+      <c r="J765" s="48"/>
+      <c r="K765" s="48"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="J766" s="46"/>
-      <c r="K766" s="46"/>
+      <c r="J766" s="48"/>
+      <c r="K766" s="48"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="J767" s="46"/>
-      <c r="K767" s="46"/>
+      <c r="J767" s="48"/>
+      <c r="K767" s="48"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="J768" s="46"/>
-      <c r="K768" s="46"/>
+      <c r="J768" s="48"/>
+      <c r="K768" s="48"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="J769" s="46"/>
-      <c r="K769" s="46"/>
+      <c r="J769" s="48"/>
+      <c r="K769" s="48"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="J770" s="46"/>
-      <c r="K770" s="46"/>
+      <c r="J770" s="48"/>
+      <c r="K770" s="48"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="J771" s="46"/>
-      <c r="K771" s="46"/>
+      <c r="J771" s="48"/>
+      <c r="K771" s="48"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="J772" s="46"/>
-      <c r="K772" s="46"/>
+      <c r="J772" s="48"/>
+      <c r="K772" s="48"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="J773" s="46"/>
-      <c r="K773" s="46"/>
+      <c r="J773" s="48"/>
+      <c r="K773" s="48"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="J774" s="46"/>
-      <c r="K774" s="46"/>
+      <c r="J774" s="48"/>
+      <c r="K774" s="48"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="J775" s="46"/>
-      <c r="K775" s="46"/>
+      <c r="J775" s="48"/>
+      <c r="K775" s="48"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="J776" s="46"/>
-      <c r="K776" s="46"/>
+      <c r="J776" s="48"/>
+      <c r="K776" s="48"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="J777" s="46"/>
-      <c r="K777" s="46"/>
+      <c r="J777" s="48"/>
+      <c r="K777" s="48"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="J778" s="46"/>
-      <c r="K778" s="46"/>
+      <c r="J778" s="48"/>
+      <c r="K778" s="48"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="J779" s="46"/>
-      <c r="K779" s="46"/>
+      <c r="J779" s="48"/>
+      <c r="K779" s="48"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="J780" s="46"/>
-      <c r="K780" s="46"/>
+      <c r="J780" s="48"/>
+      <c r="K780" s="48"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="J781" s="46"/>
-      <c r="K781" s="46"/>
+      <c r="J781" s="48"/>
+      <c r="K781" s="48"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="J782" s="46"/>
-      <c r="K782" s="46"/>
+      <c r="J782" s="48"/>
+      <c r="K782" s="48"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="J783" s="46"/>
-      <c r="K783" s="46"/>
+      <c r="J783" s="48"/>
+      <c r="K783" s="48"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="J784" s="46"/>
-      <c r="K784" s="46"/>
+      <c r="J784" s="48"/>
+      <c r="K784" s="48"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="J785" s="46"/>
-      <c r="K785" s="46"/>
+      <c r="J785" s="48"/>
+      <c r="K785" s="48"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="J786" s="46"/>
-      <c r="K786" s="46"/>
+      <c r="J786" s="48"/>
+      <c r="K786" s="48"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="J787" s="46"/>
-      <c r="K787" s="46"/>
+      <c r="J787" s="48"/>
+      <c r="K787" s="48"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="J788" s="46"/>
-      <c r="K788" s="46"/>
+      <c r="J788" s="48"/>
+      <c r="K788" s="48"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="J789" s="46"/>
-      <c r="K789" s="46"/>
+      <c r="J789" s="48"/>
+      <c r="K789" s="48"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="J790" s="46"/>
-      <c r="K790" s="46"/>
+      <c r="J790" s="48"/>
+      <c r="K790" s="48"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="J791" s="46"/>
-      <c r="K791" s="46"/>
+      <c r="J791" s="48"/>
+      <c r="K791" s="48"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="J792" s="46"/>
-      <c r="K792" s="46"/>
+      <c r="J792" s="48"/>
+      <c r="K792" s="48"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="J793" s="46"/>
-      <c r="K793" s="46"/>
+      <c r="J793" s="48"/>
+      <c r="K793" s="48"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="J794" s="46"/>
-      <c r="K794" s="46"/>
+      <c r="J794" s="48"/>
+      <c r="K794" s="48"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="J795" s="46"/>
-      <c r="K795" s="46"/>
+      <c r="J795" s="48"/>
+      <c r="K795" s="48"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="J796" s="46"/>
-      <c r="K796" s="46"/>
+      <c r="J796" s="48"/>
+      <c r="K796" s="48"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="J797" s="46"/>
-      <c r="K797" s="46"/>
+      <c r="J797" s="48"/>
+      <c r="K797" s="48"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="J798" s="46"/>
-      <c r="K798" s="46"/>
+      <c r="J798" s="48"/>
+      <c r="K798" s="48"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="J799" s="46"/>
-      <c r="K799" s="46"/>
+      <c r="J799" s="48"/>
+      <c r="K799" s="48"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="J800" s="46"/>
-      <c r="K800" s="46"/>
+      <c r="J800" s="48"/>
+      <c r="K800" s="48"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="J801" s="46"/>
-      <c r="K801" s="46"/>
+      <c r="J801" s="48"/>
+      <c r="K801" s="48"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="J802" s="46"/>
-      <c r="K802" s="46"/>
+      <c r="J802" s="48"/>
+      <c r="K802" s="48"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="J803" s="46"/>
-      <c r="K803" s="46"/>
+      <c r="J803" s="48"/>
+      <c r="K803" s="48"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="J804" s="46"/>
-      <c r="K804" s="46"/>
+      <c r="J804" s="48"/>
+      <c r="K804" s="48"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="J805" s="46"/>
-      <c r="K805" s="46"/>
+      <c r="J805" s="48"/>
+      <c r="K805" s="48"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="J806" s="46"/>
-      <c r="K806" s="46"/>
+      <c r="J806" s="48"/>
+      <c r="K806" s="48"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="J807" s="46"/>
-      <c r="K807" s="46"/>
+      <c r="J807" s="48"/>
+      <c r="K807" s="48"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="J808" s="46"/>
-      <c r="K808" s="46"/>
+      <c r="J808" s="48"/>
+      <c r="K808" s="48"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="J809" s="46"/>
-      <c r="K809" s="46"/>
+      <c r="J809" s="48"/>
+      <c r="K809" s="48"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="J810" s="46"/>
-      <c r="K810" s="46"/>
+      <c r="J810" s="48"/>
+      <c r="K810" s="48"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="J811" s="46"/>
-      <c r="K811" s="46"/>
+      <c r="J811" s="48"/>
+      <c r="K811" s="48"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="J812" s="46"/>
-      <c r="K812" s="46"/>
+      <c r="J812" s="48"/>
+      <c r="K812" s="48"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="J813" s="46"/>
-      <c r="K813" s="46"/>
+      <c r="J813" s="48"/>
+      <c r="K813" s="48"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="J814" s="46"/>
-      <c r="K814" s="46"/>
+      <c r="J814" s="48"/>
+      <c r="K814" s="48"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="J815" s="46"/>
-      <c r="K815" s="46"/>
+      <c r="J815" s="48"/>
+      <c r="K815" s="48"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="J816" s="46"/>
-      <c r="K816" s="46"/>
+      <c r="J816" s="48"/>
+      <c r="K816" s="48"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="J817" s="46"/>
-      <c r="K817" s="46"/>
+      <c r="J817" s="48"/>
+      <c r="K817" s="48"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="J818" s="46"/>
-      <c r="K818" s="46"/>
+      <c r="J818" s="48"/>
+      <c r="K818" s="48"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="J819" s="46"/>
-      <c r="K819" s="46"/>
+      <c r="J819" s="48"/>
+      <c r="K819" s="48"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="J820" s="46"/>
-      <c r="K820" s="46"/>
+      <c r="J820" s="48"/>
+      <c r="K820" s="48"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="J821" s="46"/>
-      <c r="K821" s="46"/>
+      <c r="J821" s="48"/>
+      <c r="K821" s="48"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="J822" s="46"/>
-      <c r="K822" s="46"/>
+      <c r="J822" s="48"/>
+      <c r="K822" s="48"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="J823" s="46"/>
-      <c r="K823" s="46"/>
+      <c r="J823" s="48"/>
+      <c r="K823" s="48"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="J824" s="46"/>
-      <c r="K824" s="46"/>
+      <c r="J824" s="48"/>
+      <c r="K824" s="48"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="J825" s="46"/>
-      <c r="K825" s="46"/>
+      <c r="J825" s="48"/>
+      <c r="K825" s="48"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="J826" s="46"/>
-      <c r="K826" s="46"/>
+      <c r="J826" s="48"/>
+      <c r="K826" s="48"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="J827" s="46"/>
-      <c r="K827" s="46"/>
+      <c r="J827" s="48"/>
+      <c r="K827" s="48"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="J828" s="46"/>
-      <c r="K828" s="46"/>
+      <c r="J828" s="48"/>
+      <c r="K828" s="48"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="J829" s="46"/>
-      <c r="K829" s="46"/>
+      <c r="J829" s="48"/>
+      <c r="K829" s="48"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="J830" s="46"/>
-      <c r="K830" s="46"/>
+      <c r="J830" s="48"/>
+      <c r="K830" s="48"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="J831" s="46"/>
-      <c r="K831" s="46"/>
+      <c r="J831" s="48"/>
+      <c r="K831" s="48"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="J832" s="46"/>
-      <c r="K832" s="46"/>
+      <c r="J832" s="48"/>
+      <c r="K832" s="48"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="J833" s="46"/>
-      <c r="K833" s="46"/>
+      <c r="J833" s="48"/>
+      <c r="K833" s="48"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="J834" s="46"/>
-      <c r="K834" s="46"/>
+      <c r="J834" s="48"/>
+      <c r="K834" s="48"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="J835" s="46"/>
-      <c r="K835" s="46"/>
+      <c r="J835" s="48"/>
+      <c r="K835" s="48"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="J836" s="46"/>
-      <c r="K836" s="46"/>
+      <c r="J836" s="48"/>
+      <c r="K836" s="48"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="J837" s="46"/>
-      <c r="K837" s="46"/>
+      <c r="J837" s="48"/>
+      <c r="K837" s="48"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="J838" s="46"/>
-      <c r="K838" s="46"/>
+      <c r="J838" s="48"/>
+      <c r="K838" s="48"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="J839" s="46"/>
-      <c r="K839" s="46"/>
+      <c r="J839" s="48"/>
+      <c r="K839" s="48"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="J840" s="46"/>
-      <c r="K840" s="46"/>
+      <c r="J840" s="48"/>
+      <c r="K840" s="48"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="J841" s="46"/>
-      <c r="K841" s="46"/>
+      <c r="J841" s="48"/>
+      <c r="K841" s="48"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="J842" s="46"/>
-      <c r="K842" s="46"/>
+      <c r="J842" s="48"/>
+      <c r="K842" s="48"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="J843" s="46"/>
-      <c r="K843" s="46"/>
+      <c r="J843" s="48"/>
+      <c r="K843" s="48"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="J844" s="46"/>
-      <c r="K844" s="46"/>
+      <c r="J844" s="48"/>
+      <c r="K844" s="48"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="J845" s="46"/>
-      <c r="K845" s="46"/>
+      <c r="J845" s="48"/>
+      <c r="K845" s="48"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="J846" s="46"/>
-      <c r="K846" s="46"/>
+      <c r="J846" s="48"/>
+      <c r="K846" s="48"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="J847" s="46"/>
-      <c r="K847" s="46"/>
+      <c r="J847" s="48"/>
+      <c r="K847" s="48"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="J848" s="46"/>
-      <c r="K848" s="46"/>
+      <c r="J848" s="48"/>
+      <c r="K848" s="48"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="J849" s="46"/>
-      <c r="K849" s="46"/>
+      <c r="J849" s="48"/>
+      <c r="K849" s="48"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="J850" s="46"/>
-      <c r="K850" s="46"/>
+      <c r="J850" s="48"/>
+      <c r="K850" s="48"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="J851" s="46"/>
-      <c r="K851" s="46"/>
+      <c r="J851" s="48"/>
+      <c r="K851" s="48"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="J852" s="46"/>
-      <c r="K852" s="46"/>
+      <c r="J852" s="48"/>
+      <c r="K852" s="48"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="J853" s="46"/>
-      <c r="K853" s="46"/>
+      <c r="J853" s="48"/>
+      <c r="K853" s="48"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="J854" s="46"/>
-      <c r="K854" s="46"/>
+      <c r="J854" s="48"/>
+      <c r="K854" s="48"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="J855" s="46"/>
-      <c r="K855" s="46"/>
+      <c r="J855" s="48"/>
+      <c r="K855" s="48"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="J856" s="46"/>
-      <c r="K856" s="46"/>
+      <c r="J856" s="48"/>
+      <c r="K856" s="48"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="J857" s="46"/>
-      <c r="K857" s="46"/>
+      <c r="J857" s="48"/>
+      <c r="K857" s="48"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="J858" s="46"/>
-      <c r="K858" s="46"/>
+      <c r="J858" s="48"/>
+      <c r="K858" s="48"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="J859" s="46"/>
-      <c r="K859" s="46"/>
+      <c r="J859" s="48"/>
+      <c r="K859" s="48"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="J860" s="46"/>
-      <c r="K860" s="46"/>
+      <c r="J860" s="48"/>
+      <c r="K860" s="48"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="J861" s="46"/>
-      <c r="K861" s="46"/>
+      <c r="J861" s="48"/>
+      <c r="K861" s="48"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="J862" s="46"/>
-      <c r="K862" s="46"/>
+      <c r="J862" s="48"/>
+      <c r="K862" s="48"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="J863" s="46"/>
-      <c r="K863" s="46"/>
+      <c r="J863" s="48"/>
+      <c r="K863" s="48"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="J864" s="46"/>
-      <c r="K864" s="46"/>
+      <c r="J864" s="48"/>
+      <c r="K864" s="48"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="J865" s="46"/>
-      <c r="K865" s="46"/>
+      <c r="J865" s="48"/>
+      <c r="K865" s="48"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="J866" s="46"/>
-      <c r="K866" s="46"/>
+      <c r="J866" s="48"/>
+      <c r="K866" s="48"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="J867" s="46"/>
-      <c r="K867" s="46"/>
+      <c r="J867" s="48"/>
+      <c r="K867" s="48"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="J868" s="46"/>
-      <c r="K868" s="46"/>
+      <c r="J868" s="48"/>
+      <c r="K868" s="48"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="J869" s="46"/>
-      <c r="K869" s="46"/>
+      <c r="J869" s="48"/>
+      <c r="K869" s="48"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="J870" s="46"/>
-      <c r="K870" s="46"/>
+      <c r="J870" s="48"/>
+      <c r="K870" s="48"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="J871" s="46"/>
-      <c r="K871" s="46"/>
+      <c r="J871" s="48"/>
+      <c r="K871" s="48"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="J872" s="46"/>
-      <c r="K872" s="46"/>
+      <c r="J872" s="48"/>
+      <c r="K872" s="48"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="J873" s="46"/>
-      <c r="K873" s="46"/>
+      <c r="J873" s="48"/>
+      <c r="K873" s="48"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="J874" s="46"/>
-      <c r="K874" s="46"/>
+      <c r="J874" s="48"/>
+      <c r="K874" s="48"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="J875" s="46"/>
-      <c r="K875" s="46"/>
+      <c r="J875" s="48"/>
+      <c r="K875" s="48"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="J876" s="46"/>
-      <c r="K876" s="46"/>
+      <c r="J876" s="48"/>
+      <c r="K876" s="48"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="J877" s="46"/>
-      <c r="K877" s="46"/>
+      <c r="J877" s="48"/>
+      <c r="K877" s="48"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="J878" s="46"/>
-      <c r="K878" s="46"/>
+      <c r="J878" s="48"/>
+      <c r="K878" s="48"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="J879" s="46"/>
-      <c r="K879" s="46"/>
+      <c r="J879" s="48"/>
+      <c r="K879" s="48"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="J880" s="46"/>
-      <c r="K880" s="46"/>
+      <c r="J880" s="48"/>
+      <c r="K880" s="48"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="J881" s="46"/>
-      <c r="K881" s="46"/>
+      <c r="J881" s="48"/>
+      <c r="K881" s="48"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="J882" s="46"/>
-      <c r="K882" s="46"/>
+      <c r="J882" s="48"/>
+      <c r="K882" s="48"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="J883" s="46"/>
-      <c r="K883" s="46"/>
+      <c r="J883" s="48"/>
+      <c r="K883" s="48"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="J884" s="46"/>
-      <c r="K884" s="46"/>
+      <c r="J884" s="48"/>
+      <c r="K884" s="48"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="J885" s="46"/>
-      <c r="K885" s="46"/>
+      <c r="J885" s="48"/>
+      <c r="K885" s="48"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="J886" s="46"/>
-      <c r="K886" s="46"/>
+      <c r="J886" s="48"/>
+      <c r="K886" s="48"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="J887" s="46"/>
-      <c r="K887" s="46"/>
+      <c r="J887" s="48"/>
+      <c r="K887" s="48"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="J888" s="46"/>
-      <c r="K888" s="46"/>
+      <c r="J888" s="48"/>
+      <c r="K888" s="48"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="J889" s="46"/>
-      <c r="K889" s="46"/>
+      <c r="J889" s="48"/>
+      <c r="K889" s="48"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="J890" s="46"/>
-      <c r="K890" s="46"/>
+      <c r="J890" s="48"/>
+      <c r="K890" s="48"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="J891" s="46"/>
-      <c r="K891" s="46"/>
+      <c r="J891" s="48"/>
+      <c r="K891" s="48"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="J892" s="46"/>
-      <c r="K892" s="46"/>
+      <c r="J892" s="48"/>
+      <c r="K892" s="48"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="J893" s="46"/>
-      <c r="K893" s="46"/>
+      <c r="J893" s="48"/>
+      <c r="K893" s="48"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="J894" s="46"/>
-      <c r="K894" s="46"/>
+      <c r="J894" s="48"/>
+      <c r="K894" s="48"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="J895" s="46"/>
-      <c r="K895" s="46"/>
+      <c r="J895" s="48"/>
+      <c r="K895" s="48"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="J896" s="46"/>
-      <c r="K896" s="46"/>
+      <c r="J896" s="48"/>
+      <c r="K896" s="48"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="J897" s="46"/>
-      <c r="K897" s="46"/>
+      <c r="J897" s="48"/>
+      <c r="K897" s="48"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="J898" s="46"/>
-      <c r="K898" s="46"/>
+      <c r="J898" s="48"/>
+      <c r="K898" s="48"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="J899" s="46"/>
-      <c r="K899" s="46"/>
+      <c r="J899" s="48"/>
+      <c r="K899" s="48"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="J900" s="46"/>
-      <c r="K900" s="46"/>
+      <c r="J900" s="48"/>
+      <c r="K900" s="48"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="J901" s="46"/>
-      <c r="K901" s="46"/>
+      <c r="J901" s="48"/>
+      <c r="K901" s="48"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="J902" s="46"/>
-      <c r="K902" s="46"/>
+      <c r="J902" s="48"/>
+      <c r="K902" s="48"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="J903" s="46"/>
-      <c r="K903" s="46"/>
+      <c r="J903" s="48"/>
+      <c r="K903" s="48"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="J904" s="46"/>
-      <c r="K904" s="46"/>
+      <c r="J904" s="48"/>
+      <c r="K904" s="48"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="J905" s="46"/>
-      <c r="K905" s="46"/>
+      <c r="J905" s="48"/>
+      <c r="K905" s="48"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="J906" s="46"/>
-      <c r="K906" s="46"/>
+      <c r="J906" s="48"/>
+      <c r="K906" s="48"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="J907" s="46"/>
-      <c r="K907" s="46"/>
+      <c r="J907" s="48"/>
+      <c r="K907" s="48"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="J908" s="46"/>
-      <c r="K908" s="46"/>
+      <c r="J908" s="48"/>
+      <c r="K908" s="48"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="J909" s="46"/>
-      <c r="K909" s="46"/>
+      <c r="J909" s="48"/>
+      <c r="K909" s="48"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="J910" s="46"/>
-      <c r="K910" s="46"/>
+      <c r="J910" s="48"/>
+      <c r="K910" s="48"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="J911" s="46"/>
-      <c r="K911" s="46"/>
+      <c r="J911" s="48"/>
+      <c r="K911" s="48"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="J912" s="46"/>
-      <c r="K912" s="46"/>
+      <c r="J912" s="48"/>
+      <c r="K912" s="48"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="J913" s="46"/>
-      <c r="K913" s="46"/>
+      <c r="J913" s="48"/>
+      <c r="K913" s="48"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="J914" s="46"/>
-      <c r="K914" s="46"/>
+      <c r="J914" s="48"/>
+      <c r="K914" s="48"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="J915" s="46"/>
-      <c r="K915" s="46"/>
+      <c r="J915" s="48"/>
+      <c r="K915" s="48"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="J916" s="46"/>
-      <c r="K916" s="46"/>
+      <c r="J916" s="48"/>
+      <c r="K916" s="48"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="J917" s="46"/>
-      <c r="K917" s="46"/>
+      <c r="J917" s="48"/>
+      <c r="K917" s="48"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="J918" s="46"/>
-      <c r="K918" s="46"/>
+      <c r="J918" s="48"/>
+      <c r="K918" s="48"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="J919" s="46"/>
-      <c r="K919" s="46"/>
+      <c r="J919" s="48"/>
+      <c r="K919" s="48"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="J920" s="46"/>
-      <c r="K920" s="46"/>
+      <c r="J920" s="48"/>
+      <c r="K920" s="48"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="J921" s="46"/>
-      <c r="K921" s="46"/>
+      <c r="J921" s="48"/>
+      <c r="K921" s="48"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="J922" s="46"/>
-      <c r="K922" s="46"/>
+      <c r="J922" s="48"/>
+      <c r="K922" s="48"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="J923" s="46"/>
-      <c r="K923" s="46"/>
+      <c r="J923" s="48"/>
+      <c r="K923" s="48"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="J924" s="46"/>
-      <c r="K924" s="46"/>
+      <c r="J924" s="48"/>
+      <c r="K924" s="48"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="J925" s="46"/>
-      <c r="K925" s="46"/>
+      <c r="J925" s="48"/>
+      <c r="K925" s="48"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="J926" s="46"/>
-      <c r="K926" s="46"/>
+      <c r="J926" s="48"/>
+      <c r="K926" s="48"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="J927" s="46"/>
-      <c r="K927" s="46"/>
+      <c r="J927" s="48"/>
+      <c r="K927" s="48"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="J928" s="46"/>
-      <c r="K928" s="46"/>
+      <c r="J928" s="48"/>
+      <c r="K928" s="48"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="J929" s="46"/>
-      <c r="K929" s="46"/>
+      <c r="J929" s="48"/>
+      <c r="K929" s="48"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="J930" s="46"/>
-      <c r="K930" s="46"/>
+      <c r="J930" s="48"/>
+      <c r="K930" s="48"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="J931" s="46"/>
-      <c r="K931" s="46"/>
+      <c r="J931" s="48"/>
+      <c r="K931" s="48"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="J932" s="46"/>
-      <c r="K932" s="46"/>
+      <c r="J932" s="48"/>
+      <c r="K932" s="48"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="J933" s="46"/>
-      <c r="K933" s="46"/>
+      <c r="J933" s="48"/>
+      <c r="K933" s="48"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="J934" s="46"/>
-      <c r="K934" s="46"/>
+      <c r="J934" s="48"/>
+      <c r="K934" s="48"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="J935" s="46"/>
-      <c r="K935" s="46"/>
+      <c r="J935" s="48"/>
+      <c r="K935" s="48"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="J936" s="46"/>
-      <c r="K936" s="46"/>
+      <c r="J936" s="48"/>
+      <c r="K936" s="48"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="J937" s="46"/>
-      <c r="K937" s="46"/>
+      <c r="J937" s="48"/>
+      <c r="K937" s="48"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="J938" s="46"/>
-      <c r="K938" s="46"/>
+      <c r="J938" s="48"/>
+      <c r="K938" s="48"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="J939" s="46"/>
-      <c r="K939" s="46"/>
+      <c r="J939" s="48"/>
+      <c r="K939" s="48"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="J940" s="46"/>
-      <c r="K940" s="46"/>
+      <c r="J940" s="48"/>
+      <c r="K940" s="48"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="J941" s="46"/>
-      <c r="K941" s="46"/>
+      <c r="J941" s="48"/>
+      <c r="K941" s="48"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="J942" s="46"/>
-      <c r="K942" s="46"/>
+      <c r="J942" s="48"/>
+      <c r="K942" s="48"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="J943" s="46"/>
-      <c r="K943" s="46"/>
+      <c r="J943" s="48"/>
+      <c r="K943" s="48"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="J944" s="46"/>
-      <c r="K944" s="46"/>
+      <c r="J944" s="48"/>
+      <c r="K944" s="48"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="J945" s="46"/>
-      <c r="K945" s="46"/>
+      <c r="J945" s="48"/>
+      <c r="K945" s="48"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="J946" s="46"/>
-      <c r="K946" s="46"/>
+      <c r="J946" s="48"/>
+      <c r="K946" s="48"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="J947" s="46"/>
-      <c r="K947" s="46"/>
+      <c r="J947" s="48"/>
+      <c r="K947" s="48"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="J948" s="46"/>
-      <c r="K948" s="46"/>
+      <c r="J948" s="48"/>
+      <c r="K948" s="48"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="J949" s="46"/>
-      <c r="K949" s="46"/>
+      <c r="J949" s="48"/>
+      <c r="K949" s="48"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="J950" s="46"/>
-      <c r="K950" s="46"/>
+      <c r="J950" s="48"/>
+      <c r="K950" s="48"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="J951" s="46"/>
-      <c r="K951" s="46"/>
+      <c r="J951" s="48"/>
+      <c r="K951" s="48"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="J952" s="46"/>
-      <c r="K952" s="46"/>
+      <c r="J952" s="48"/>
+      <c r="K952" s="48"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="J953" s="46"/>
-      <c r="K953" s="46"/>
+      <c r="J953" s="48"/>
+      <c r="K953" s="48"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="J954" s="46"/>
-      <c r="K954" s="46"/>
+      <c r="J954" s="48"/>
+      <c r="K954" s="48"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="J955" s="46"/>
-      <c r="K955" s="46"/>
+      <c r="J955" s="48"/>
+      <c r="K955" s="48"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="J956" s="46"/>
-      <c r="K956" s="46"/>
+      <c r="J956" s="48"/>
+      <c r="K956" s="48"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="J957" s="46"/>
-      <c r="K957" s="46"/>
+      <c r="J957" s="48"/>
+      <c r="K957" s="48"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="J958" s="46"/>
-      <c r="K958" s="46"/>
+      <c r="J958" s="48"/>
+      <c r="K958" s="48"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="J959" s="46"/>
-      <c r="K959" s="46"/>
+      <c r="J959" s="48"/>
+      <c r="K959" s="48"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="J960" s="46"/>
-      <c r="K960" s="46"/>
+      <c r="J960" s="48"/>
+      <c r="K960" s="48"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="J961" s="46"/>
-      <c r="K961" s="46"/>
+      <c r="J961" s="48"/>
+      <c r="K961" s="48"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="J962" s="46"/>
-      <c r="K962" s="46"/>
+      <c r="J962" s="48"/>
+      <c r="K962" s="48"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="J963" s="46"/>
-      <c r="K963" s="46"/>
+      <c r="J963" s="48"/>
+      <c r="K963" s="48"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="J964" s="46"/>
-      <c r="K964" s="46"/>
+      <c r="J964" s="48"/>
+      <c r="K964" s="48"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="J965" s="46"/>
-      <c r="K965" s="46"/>
+      <c r="J965" s="48"/>
+      <c r="K965" s="48"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="J966" s="46"/>
-      <c r="K966" s="46"/>
+      <c r="J966" s="48"/>
+      <c r="K966" s="48"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="J967" s="46"/>
-      <c r="K967" s="46"/>
+      <c r="J967" s="48"/>
+      <c r="K967" s="48"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="J968" s="46"/>
-      <c r="K968" s="46"/>
+      <c r="J968" s="48"/>
+      <c r="K968" s="48"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="J969" s="46"/>
-      <c r="K969" s="46"/>
+      <c r="J969" s="48"/>
+      <c r="K969" s="48"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="J970" s="46"/>
-      <c r="K970" s="46"/>
+      <c r="J970" s="48"/>
+      <c r="K970" s="48"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="J971" s="46"/>
-      <c r="K971" s="46"/>
+      <c r="J971" s="48"/>
+      <c r="K971" s="48"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="J972" s="46"/>
-      <c r="K972" s="46"/>
+      <c r="J972" s="48"/>
+      <c r="K972" s="48"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="J973" s="46"/>
-      <c r="K973" s="46"/>
+      <c r="J973" s="48"/>
+      <c r="K973" s="48"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="J974" s="46"/>
-      <c r="K974" s="46"/>
+      <c r="J974" s="48"/>
+      <c r="K974" s="48"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="J975" s="46"/>
-      <c r="K975" s="46"/>
+      <c r="J975" s="48"/>
+      <c r="K975" s="48"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="J976" s="46"/>
-      <c r="K976" s="46"/>
+      <c r="J976" s="48"/>
+      <c r="K976" s="48"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="J977" s="46"/>
-      <c r="K977" s="46"/>
+      <c r="J977" s="48"/>
+      <c r="K977" s="48"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="J978" s="46"/>
-      <c r="K978" s="46"/>
+      <c r="J978" s="48"/>
+      <c r="K978" s="48"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="J979" s="46"/>
-      <c r="K979" s="46"/>
+      <c r="J979" s="48"/>
+      <c r="K979" s="48"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="J980" s="46"/>
-      <c r="K980" s="46"/>
+      <c r="J980" s="48"/>
+      <c r="K980" s="48"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="J981" s="46"/>
-      <c r="K981" s="46"/>
+      <c r="J981" s="48"/>
+      <c r="K981" s="48"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="J982" s="46"/>
-      <c r="K982" s="46"/>
+      <c r="J982" s="48"/>
+      <c r="K982" s="48"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="J983" s="46"/>
-      <c r="K983" s="46"/>
+      <c r="J983" s="48"/>
+      <c r="K983" s="48"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="J984" s="46"/>
-      <c r="K984" s="46"/>
+      <c r="J984" s="48"/>
+      <c r="K984" s="48"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="J985" s="46"/>
-      <c r="K985" s="46"/>
+      <c r="J985" s="48"/>
+      <c r="K985" s="48"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="J986" s="46"/>
-      <c r="K986" s="46"/>
+      <c r="J986" s="48"/>
+      <c r="K986" s="48"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="J987" s="46"/>
-      <c r="K987" s="46"/>
+      <c r="J987" s="48"/>
+      <c r="K987" s="48"/>
     </row>
   </sheetData>
   <printOptions/>
